--- a/test/gc-test/Doe/DoE.xlsx
+++ b/test/gc-test/Doe/DoE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amzv3\Documents\Github\REopt.jl\test\gc-test\Doe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsolano8\Documents\GitHub\REopt.jl\test\gc-test\Doe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002BF71F-8EAD-46A6-B811-5356A4667020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61123C8-E57F-4894-AACE-F1147AE293EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF97968E-049A-44DB-A887-65279F0F580F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="39">
   <si>
     <t>Longitude</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>outage_prob</t>
+  </si>
+  <si>
+    <t>outage_duration</t>
+  </si>
+  <si>
+    <t>outage start 1</t>
+  </si>
+  <si>
+    <t>outage start 2</t>
   </si>
 </sst>
 </file>
@@ -514,15 +526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB63762-2BFA-4FCE-9FBF-C16E78BFB9E4}">
-  <dimension ref="A1:AI150"/>
+  <dimension ref="A1:AM150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H117" workbookViewId="0">
-      <selection activeCell="Z140" sqref="Z140"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,17 +640,29 @@
       <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B2">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(4000,6000)</f>
-        <v>4499</v>
+        <v>5559</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(0.5,1.5)</f>
@@ -652,21 +676,21 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(1000,3000)</f>
-        <v>2635</v>
+        <v>1877</v>
       </c>
       <c r="H2">
         <v>34.579000000000001</v>
       </c>
       <c r="I2">
         <f ca="1">0.007*RAND()</f>
-        <v>4.2338081059113469E-3</v>
+        <v>5.2800925313915888E-3</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="K2">
         <f ca="1">0.5*RAND()</f>
-        <v>7.7865367837912813E-2</v>
+        <v>0.47806639196302708</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -740,17 +764,31 @@
       <c r="AI2">
         <v>0.4</v>
       </c>
+      <c r="AJ2">
+        <f ca="1">RAND()*0.2</f>
+        <v>2.1446320425555766E-2</v>
+      </c>
+      <c r="AK2">
+        <f ca="1">RANDBETWEEN(5,20)</f>
+        <v>18</v>
+      </c>
+      <c r="AL2">
+        <v>1233</v>
+      </c>
+      <c r="AM2">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B3">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(4000,6000)</f>
-        <v>5387</v>
+        <v>5567</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" ca="1" si="1">RANDBETWEEN(0.5,1.5)</f>
@@ -764,21 +802,21 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="2">RANDBETWEEN(1000,3000)</f>
-        <v>2637</v>
+        <v>2157</v>
       </c>
       <c r="H3">
         <v>34.579000000000001</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" ca="1" si="3">0.007*RAND()</f>
-        <v>6.3997243273848647E-3</v>
+        <v>4.6481544964235748E-3</v>
       </c>
       <c r="J3">
         <v>5</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K66" ca="1" si="4">0.5*RAND()</f>
-        <v>0.1662608194435034</v>
+        <v>0.38942810188055921</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -852,17 +890,31 @@
       <c r="AI3">
         <v>0.4</v>
       </c>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ66" ca="1" si="5">RAND()*0.2</f>
+        <v>8.291281008388747E-2</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK66" ca="1" si="6">RANDBETWEEN(5,20)</f>
+        <v>8</v>
+      </c>
+      <c r="AL3">
+        <v>1233</v>
+      </c>
+      <c r="AM3">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B4">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>4195</v>
+        <v>5230</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
@@ -876,21 +928,21 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>1964</v>
+        <v>1568</v>
       </c>
       <c r="H4">
         <v>34.579000000000001</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2763484917414642E-3</v>
+        <v>1.6017482922697421E-3</v>
       </c>
       <c r="J4">
         <v>5</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.284454469941958</v>
+        <v>0.38855677076825684</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -964,17 +1016,31 @@
       <c r="AI4">
         <v>0.4</v>
       </c>
+      <c r="AJ4">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.10005849891213377</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AL4">
+        <v>1233</v>
+      </c>
+      <c r="AM4">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B5">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>5030</v>
+        <v>4185</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
@@ -988,21 +1054,21 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>2989</v>
+        <v>1924</v>
       </c>
       <c r="H5">
         <v>34.579000000000001</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2472879744154284E-3</v>
+        <v>1.6921285067187403E-3</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10395512369977539</v>
+        <v>0.35514554238638946</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1076,17 +1142,31 @@
       <c r="AI5">
         <v>0.4</v>
       </c>
+      <c r="AJ5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1782001364670148</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="AL5">
+        <v>1233</v>
+      </c>
+      <c r="AM5">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B6">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>4328</v>
+        <v>4001</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
@@ -1100,21 +1180,21 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>1311</v>
+        <v>2911</v>
       </c>
       <c r="H6">
         <v>34.579000000000001</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9693035722009945E-3</v>
+        <v>1.9617803760654594E-3</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44664005793436939</v>
+        <v>6.9570447694273729E-2</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1188,17 +1268,31 @@
       <c r="AI6">
         <v>0.4</v>
       </c>
+      <c r="AJ6">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.6256607792191198E-2</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="AL6">
+        <v>1233</v>
+      </c>
+      <c r="AM6">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B7">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>5907</v>
+        <v>5103</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
@@ -1212,21 +1306,21 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>2132</v>
+        <v>1563</v>
       </c>
       <c r="H7">
         <v>34.579000000000001</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6971621294152116E-3</v>
+        <v>5.865406863465354E-3</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12598503968675112</v>
+        <v>0.20510440959532816</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1300,17 +1394,31 @@
       <c r="AI7">
         <v>0.4</v>
       </c>
+      <c r="AJ7">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.8285990277094316E-2</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AL7">
+        <v>1233</v>
+      </c>
+      <c r="AM7">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B8">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>4088</v>
+        <v>5577</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
@@ -1324,21 +1432,21 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>1080</v>
+        <v>1463</v>
       </c>
       <c r="H8">
         <v>34.579000000000001</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9934290877333047E-3</v>
+        <v>5.8275965588406378E-3</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1442377313954568E-2</v>
+        <v>0.35185515649845339</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1412,17 +1520,31 @@
       <c r="AI8">
         <v>0.4</v>
       </c>
+      <c r="AJ8">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.10517126813627378</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AL8">
+        <v>1233</v>
+      </c>
+      <c r="AM8">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B9">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>4320</v>
+        <v>5832</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
@@ -1436,21 +1558,21 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>2578</v>
+        <v>2716</v>
       </c>
       <c r="H9">
         <v>34.579000000000001</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9901263087114688E-3</v>
+        <v>6.7057891065555692E-3</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="4"/>
-        <v>9.0063105437483415E-2</v>
+        <v>0.24297257057519883</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1524,17 +1646,31 @@
       <c r="AI9">
         <v>0.4</v>
       </c>
+      <c r="AJ9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.9327020841691008E-2</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AL9">
+        <v>1233</v>
+      </c>
+      <c r="AM9">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B10">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>5018</v>
+        <v>5777</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
@@ -1548,21 +1684,21 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>2102</v>
+        <v>2347</v>
       </c>
       <c r="H10">
         <v>34.579000000000001</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8874877123535949E-3</v>
+        <v>3.1683660729092699E-4</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36663983775630937</v>
+        <v>3.1548359691635997E-2</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1636,17 +1772,31 @@
       <c r="AI10">
         <v>0.4</v>
       </c>
+      <c r="AJ10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.17153433564240606</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="AL10">
+        <v>1233</v>
+      </c>
+      <c r="AM10">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B11">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>4733</v>
+        <v>4600</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
@@ -1660,21 +1810,21 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>1106</v>
+        <v>1878</v>
       </c>
       <c r="H11">
         <v>34.579000000000001</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8063634441190915E-3</v>
+        <v>5.8002397045692688E-3</v>
       </c>
       <c r="J11">
         <v>5</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.237171036081954</v>
+        <v>3.3590697734762809E-2</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1748,17 +1898,31 @@
       <c r="AI11">
         <v>0.4</v>
       </c>
+      <c r="AJ11">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.19163471980235464</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AL11">
+        <v>1233</v>
+      </c>
+      <c r="AM11">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B12">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>4382</v>
+        <v>4914</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
@@ -1772,21 +1936,21 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>1030</v>
+        <v>2994</v>
       </c>
       <c r="H12">
         <v>34.579000000000001</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0614502904784498E-3</v>
+        <v>6.9468352973170496E-3</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28810068545145007</v>
+        <v>0.25343597926584494</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1860,17 +2024,31 @@
       <c r="AI12">
         <v>0.4</v>
       </c>
+      <c r="AJ12">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.8212225524374854E-2</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AL12">
+        <v>1233</v>
+      </c>
+      <c r="AM12">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B13">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>5311</v>
+        <v>5396</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
@@ -1884,21 +2062,21 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>2939</v>
+        <v>1953</v>
       </c>
       <c r="H13">
         <v>34.579000000000001</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0552208121232657E-3</v>
+        <v>1.9933207323670011E-3</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="4"/>
-        <v>7.9937154387028142E-2</v>
+        <v>0.29849231620246924</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1972,17 +2150,31 @@
       <c r="AI13">
         <v>0.4</v>
       </c>
+      <c r="AJ13">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.14882394456293779</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="AL13">
+        <v>1233</v>
+      </c>
+      <c r="AM13">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B14">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>4987</v>
+        <v>4883</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
@@ -1996,21 +2188,21 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>1403</v>
+        <v>1040</v>
       </c>
       <c r="H14">
         <v>34.579000000000001</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>4.374481717623023E-3</v>
+        <v>6.3096086644875782E-3</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4486707023579402E-2</v>
+        <v>0.14566287636533909</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2084,17 +2276,31 @@
       <c r="AI14">
         <v>0.4</v>
       </c>
+      <c r="AJ14">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.13962778693555233</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AL14">
+        <v>1233</v>
+      </c>
+      <c r="AM14">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B15">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>4941</v>
+        <v>5734</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
@@ -2108,21 +2314,21 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>1232</v>
+        <v>1215</v>
       </c>
       <c r="H15">
         <v>34.579000000000001</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0175006096110624E-3</v>
+        <v>5.7063365091132908E-3</v>
       </c>
       <c r="J15">
         <v>5</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26497268186847872</v>
+        <v>0.29941934842311957</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2196,17 +2402,31 @@
       <c r="AI15">
         <v>0.4</v>
       </c>
+      <c r="AJ15">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.7299618075386203E-2</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="AL15">
+        <v>1233</v>
+      </c>
+      <c r="AM15">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B16">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>5016</v>
+        <v>5176</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
@@ -2220,21 +2440,21 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>2480</v>
+        <v>2953</v>
       </c>
       <c r="H16">
         <v>34.579000000000001</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8730105042606294E-4</v>
+        <v>4.50765946712651E-3</v>
       </c>
       <c r="J16">
         <v>5</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28279004375243999</v>
+        <v>8.1848952398186403E-2</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2308,17 +2528,31 @@
       <c r="AI16">
         <v>0.4</v>
       </c>
+      <c r="AJ16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.13115234833098813</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AL16">
+        <v>1233</v>
+      </c>
+      <c r="AM16">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B17">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>5693</v>
+        <v>4129</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
@@ -2332,21 +2566,21 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>2315</v>
+        <v>2763</v>
       </c>
       <c r="H17">
         <v>34.579000000000001</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7429619339043132E-4</v>
+        <v>4.7934935302667864E-3</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28323170760691163</v>
+        <v>0.2935552143091063</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2420,17 +2654,31 @@
       <c r="AI17">
         <v>0.4</v>
       </c>
+      <c r="AJ17">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15473809559446425</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AL17">
+        <v>1233</v>
+      </c>
+      <c r="AM17">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B18">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>4302</v>
+        <v>4802</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
@@ -2444,21 +2692,21 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>1607</v>
+        <v>2348</v>
       </c>
       <c r="H18">
         <v>34.579000000000001</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7814018945131647E-3</v>
+        <v>1.0982488563584158E-4</v>
       </c>
       <c r="J18">
         <v>5</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4599011506554902E-2</v>
+        <v>0.17590915708486343</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2532,17 +2780,31 @@
       <c r="AI18">
         <v>0.4</v>
       </c>
+      <c r="AJ18">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.14666160465734876</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AL18">
+        <v>1233</v>
+      </c>
+      <c r="AM18">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B19">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>5485</v>
+        <v>5495</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
@@ -2556,21 +2818,21 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>2125</v>
+        <v>2646</v>
       </c>
       <c r="H19">
         <v>34.579000000000001</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="3"/>
-        <v>8.2441685712431739E-4</v>
+        <v>1.5514737591476578E-3</v>
       </c>
       <c r="J19">
         <v>5</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2472909487989912E-2</v>
+        <v>0.25847491423102559</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2644,17 +2906,31 @@
       <c r="AI19">
         <v>0.4</v>
       </c>
+      <c r="AJ19">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.1755338851642294E-2</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="AL19">
+        <v>1233</v>
+      </c>
+      <c r="AM19">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B20">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>4427</v>
+        <v>4381</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
@@ -2668,21 +2944,21 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>1070</v>
+        <v>1328</v>
       </c>
       <c r="H20">
         <v>34.579000000000001</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7009979602829809E-3</v>
+        <v>1.633418601446902E-3</v>
       </c>
       <c r="J20">
         <v>5</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34264205459141711</v>
+        <v>1.8356614436281338E-2</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2756,17 +3032,31 @@
       <c r="AI20">
         <v>0.4</v>
       </c>
+      <c r="AJ20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1694634160482546</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AL20">
+        <v>1233</v>
+      </c>
+      <c r="AM20">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B21">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>5405</v>
+        <v>4111</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
@@ -2780,21 +3070,21 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>2022</v>
+        <v>2921</v>
       </c>
       <c r="H21">
         <v>34.579000000000001</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0788972262119222E-3</v>
+        <v>5.5596101739990482E-3</v>
       </c>
       <c r="J21">
         <v>5</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13871361013710065</v>
+        <v>4.4809532006473085E-2</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2868,17 +3158,31 @@
       <c r="AI21">
         <v>0.4</v>
       </c>
+      <c r="AJ21">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.17467795179808965</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="AL21">
+        <v>1233</v>
+      </c>
+      <c r="AM21">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B22">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>5551</v>
+        <v>4229</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
@@ -2892,21 +3196,21 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>2706</v>
+        <v>2686</v>
       </c>
       <c r="H22">
         <v>34.579000000000001</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2973192660721027E-3</v>
+        <v>5.6174473337891329E-3</v>
       </c>
       <c r="J22">
         <v>5</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4652070570865412</v>
+        <v>0.32629904695006179</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2980,17 +3284,31 @@
       <c r="AI22">
         <v>0.4</v>
       </c>
+      <c r="AJ22">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12433884024853042</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AL22">
+        <v>1233</v>
+      </c>
+      <c r="AM22">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B23">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>4480</v>
+        <v>4002</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
@@ -3004,21 +3322,21 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>1955</v>
+        <v>1924</v>
       </c>
       <c r="H23">
         <v>34.579000000000001</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="3"/>
-        <v>1.342314172716312E-3</v>
+        <v>3.2206601891842184E-3</v>
       </c>
       <c r="J23">
         <v>5</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19737464829146201</v>
+        <v>0.45325983798687247</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3092,17 +3410,31 @@
       <c r="AI23">
         <v>0.4</v>
       </c>
+      <c r="AJ23">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2965330753834389E-2</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AL23">
+        <v>1233</v>
+      </c>
+      <c r="AM23">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B24">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>5163</v>
+        <v>4008</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
@@ -3116,21 +3448,21 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>1348</v>
+        <v>2185</v>
       </c>
       <c r="H24">
         <v>34.579000000000001</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9329583508338401E-3</v>
+        <v>4.7884578284072658E-3</v>
       </c>
       <c r="J24">
         <v>5</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24492173973882891</v>
+        <v>0.21671467545800394</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3204,17 +3536,31 @@
       <c r="AI24">
         <v>0.4</v>
       </c>
+      <c r="AJ24">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.2876939383370885E-2</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" ca="1" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AL24">
+        <v>1233</v>
+      </c>
+      <c r="AM24">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B25">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>5419</v>
+        <v>5989</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
@@ -3228,21 +3574,21 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>2652</v>
+        <v>1600</v>
       </c>
       <c r="H25">
         <v>34.579000000000001</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4946470882148159E-3</v>
+        <v>4.6348323819408697E-3</v>
       </c>
       <c r="J25">
         <v>5</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13744607109515328</v>
+        <v>0.25001385267265436</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3316,17 +3662,31 @@
       <c r="AI25">
         <v>0.4</v>
       </c>
+      <c r="AJ25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.18737749802089426</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AL25">
+        <v>1233</v>
+      </c>
+      <c r="AM25">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B26">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>4026</v>
+        <v>4784</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
@@ -3340,21 +3700,21 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>1091</v>
+        <v>1114</v>
       </c>
       <c r="H26">
         <v>34.579000000000001</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5901684154666623E-3</v>
+        <v>6.9027865585177375E-5</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46163846732153635</v>
+        <v>3.6290155186365858E-2</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3428,17 +3788,31 @@
       <c r="AI26">
         <v>0.4</v>
       </c>
+      <c r="AJ26">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.9561738347391029E-3</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AL26">
+        <v>1233</v>
+      </c>
+      <c r="AM26">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B27">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>4989</v>
+        <v>5372</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
@@ -3452,21 +3826,21 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>1107</v>
+        <v>2868</v>
       </c>
       <c r="H27">
         <v>34.579000000000001</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7848164487778933E-3</v>
+        <v>1.5654804394773502E-4</v>
       </c>
       <c r="J27">
         <v>5</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5175861186135509E-2</v>
+        <v>0.13650071779403972</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3540,17 +3914,31 @@
       <c r="AI27">
         <v>0.4</v>
       </c>
+      <c r="AJ27">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.3562352340283605E-2</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="AL27">
+        <v>1233</v>
+      </c>
+      <c r="AM27">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B28">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>5103</v>
+        <v>5717</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
@@ -3564,21 +3952,21 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>2143</v>
+        <v>1977</v>
       </c>
       <c r="H28">
         <v>34.579000000000001</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8458697781897219E-3</v>
+        <v>3.4693195164055935E-4</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45086157419514372</v>
+        <v>4.3464005616065338E-2</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3652,17 +4040,31 @@
       <c r="AI28">
         <v>0.4</v>
       </c>
+      <c r="AJ28">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1878308151673509</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AL28">
+        <v>1233</v>
+      </c>
+      <c r="AM28">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B29">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>5136</v>
+        <v>4296</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
@@ -3676,21 +4078,21 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>1384</v>
+        <v>2535</v>
       </c>
       <c r="H29">
         <v>34.579000000000001</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1723031036102059E-3</v>
+        <v>3.4880338733739081E-3</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39906362081742802</v>
+        <v>0.11551443993905652</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3764,17 +4166,31 @@
       <c r="AI29">
         <v>0.4</v>
       </c>
+      <c r="AJ29">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.463213074905247E-2</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AL29">
+        <v>1233</v>
+      </c>
+      <c r="AM29">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B30">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>4172</v>
+        <v>4578</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
@@ -3788,21 +4204,21 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>1893</v>
+        <v>2721</v>
       </c>
       <c r="H30">
         <v>34.579000000000001</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="3"/>
-        <v>6.985525094924467E-3</v>
+        <v>5.658872241664537E-3</v>
       </c>
       <c r="J30">
         <v>5</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47189516264653242</v>
+        <v>0.24362163627282024</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3876,17 +4292,31 @@
       <c r="AI30">
         <v>0.4</v>
       </c>
+      <c r="AJ30">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12978511016720123</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="AL30">
+        <v>1233</v>
+      </c>
+      <c r="AM30">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B31">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>5214</v>
+        <v>4680</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
@@ -3900,21 +4330,21 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>1350</v>
+        <v>1744</v>
       </c>
       <c r="H31">
         <v>34.579000000000001</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6044639304356968E-3</v>
+        <v>1.1691874267677866E-3</v>
       </c>
       <c r="J31">
         <v>5</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31612223457513056</v>
+        <v>0.36916738248913578</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3988,17 +4418,31 @@
       <c r="AI31">
         <v>0.4</v>
       </c>
+      <c r="AJ31">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.2918375439016596E-3</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="AL31">
+        <v>1233</v>
+      </c>
+      <c r="AM31">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B32">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>5029</v>
+        <v>5180</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
@@ -4012,21 +4456,21 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>2770</v>
+        <v>1868</v>
       </c>
       <c r="H32">
         <v>34.579000000000001</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="3"/>
-        <v>4.53264176743677E-3</v>
+        <v>4.3608757321319093E-4</v>
       </c>
       <c r="J32">
         <v>5</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5363242352344095E-2</v>
+        <v>0.27045458184947502</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -4100,17 +4544,31 @@
       <c r="AI32">
         <v>0.4</v>
       </c>
+      <c r="AJ32">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0872460604408616E-3</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AL32">
+        <v>1233</v>
+      </c>
+      <c r="AM32">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B33">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>5567</v>
+        <v>5579</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
@@ -4124,21 +4582,21 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>2783</v>
+        <v>1348</v>
       </c>
       <c r="H33">
         <v>34.579000000000001</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6730792834926088E-3</v>
+        <v>6.6026470046850177E-3</v>
       </c>
       <c r="J33">
         <v>5</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31935171114435951</v>
+        <v>0.34593876589942851</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4212,17 +4670,31 @@
       <c r="AI33">
         <v>0.4</v>
       </c>
+      <c r="AJ33">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.0706093863446793E-2</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AL33">
+        <v>1233</v>
+      </c>
+      <c r="AM33">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B34">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>4666</v>
+        <v>5404</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
@@ -4236,21 +4708,21 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>2271</v>
+        <v>1377</v>
       </c>
       <c r="H34">
         <v>34.579000000000001</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7046636091352739E-3</v>
+        <v>9.8200232122965534E-4</v>
       </c>
       <c r="J34">
         <v>5</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32409871863250539</v>
+        <v>0.43798748098229129</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4324,17 +4796,31 @@
       <c r="AI34">
         <v>0.4</v>
       </c>
+      <c r="AJ34">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.3901226127646999E-2</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="AL34">
+        <v>1233</v>
+      </c>
+      <c r="AM34">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B35">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>5053</v>
+        <v>5885</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
@@ -4348,21 +4834,21 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>2875</v>
+        <v>1473</v>
       </c>
       <c r="H35">
         <v>34.579000000000001</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9122002539290915E-3</v>
+        <v>1.0636670331177951E-3</v>
       </c>
       <c r="J35">
         <v>5</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26188935843606825</v>
+        <v>0.28852654207811618</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -4436,17 +4922,31 @@
       <c r="AI35">
         <v>0.4</v>
       </c>
+      <c r="AJ35">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4448124936803565E-2</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AL35">
+        <v>1233</v>
+      </c>
+      <c r="AM35">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B36">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>4905</v>
+        <v>5052</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
@@ -4460,21 +4960,21 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>2028</v>
+        <v>2844</v>
       </c>
       <c r="H36">
         <v>34.579000000000001</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4572730419787645E-3</v>
+        <v>1.5375508462397729E-3</v>
       </c>
       <c r="J36">
         <v>5</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21859163831656908</v>
+        <v>0.44957383458956307</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4548,17 +5048,31 @@
       <c r="AI36">
         <v>0.4</v>
       </c>
+      <c r="AJ36">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.11185051190974359</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" ca="1" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AL36">
+        <v>1233</v>
+      </c>
+      <c r="AM36">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B37">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>4525</v>
+        <v>5012</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
@@ -4572,21 +5086,21 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>2961</v>
+        <v>1285</v>
       </c>
       <c r="H37">
         <v>34.579000000000001</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3477386532001817E-3</v>
+        <v>5.0421557831423665E-3</v>
       </c>
       <c r="J37">
         <v>5</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="4"/>
-        <v>6.9249614894294764E-2</v>
+        <v>0.40542467473968558</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -4660,17 +5174,31 @@
       <c r="AI37">
         <v>0.4</v>
       </c>
+      <c r="AJ37">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.566191352160001E-2</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="AL37">
+        <v>1233</v>
+      </c>
+      <c r="AM37">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B38">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>4290</v>
+        <v>4248</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
@@ -4684,21 +5212,21 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>2445</v>
+        <v>2822</v>
       </c>
       <c r="H38">
         <v>34.579000000000001</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7073269455502964E-3</v>
+        <v>2.4165915865426769E-3</v>
       </c>
       <c r="J38">
         <v>5</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31246288409076373</v>
+        <v>0.36918361601117261</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4772,17 +5300,31 @@
       <c r="AI38">
         <v>0.4</v>
       </c>
+      <c r="AJ38">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12300713205300735</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AL38">
+        <v>1233</v>
+      </c>
+      <c r="AM38">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B39">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>4229</v>
+        <v>4511</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
@@ -4796,21 +5338,21 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="2"/>
-        <v>2501</v>
+        <v>2021</v>
       </c>
       <c r="H39">
         <v>34.579000000000001</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0157001231924056E-3</v>
+        <v>2.4615653511872687E-3</v>
       </c>
       <c r="J39">
         <v>5</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29205983590420243</v>
+        <v>0.30146328074348372</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4884,17 +5426,31 @@
       <c r="AI39">
         <v>0.4</v>
       </c>
+      <c r="AJ39">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.3664580283777681E-2</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="AL39">
+        <v>1233</v>
+      </c>
+      <c r="AM39">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B40">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>4284</v>
+        <v>5681</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
@@ -4908,21 +5464,21 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="2"/>
-        <v>1854</v>
+        <v>2623</v>
       </c>
       <c r="H40">
         <v>34.579000000000001</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8792925227198772E-3</v>
+        <v>1.8470038121356036E-3</v>
       </c>
       <c r="J40">
         <v>5</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21899111351134604</v>
+        <v>0.15639843826533745</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4996,17 +5552,31 @@
       <c r="AI40">
         <v>0.4</v>
       </c>
+      <c r="AJ40">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.19316566524680273</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AL40">
+        <v>1233</v>
+      </c>
+      <c r="AM40">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B41">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>4458</v>
+        <v>4169</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
@@ -5020,21 +5590,21 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="2"/>
-        <v>1894</v>
+        <v>1230</v>
       </c>
       <c r="H41">
         <v>34.579000000000001</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5653805365470854E-4</v>
+        <v>6.5735769369968155E-3</v>
       </c>
       <c r="J41">
         <v>5</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27831891349973259</v>
+        <v>4.8589306113440145E-2</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -5108,17 +5678,31 @@
       <c r="AI41">
         <v>0.4</v>
       </c>
+      <c r="AJ41">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.17317035353048302</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="AL41">
+        <v>1233</v>
+      </c>
+      <c r="AM41">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B42">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>5370</v>
+        <v>4527</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
@@ -5132,21 +5716,21 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="2"/>
-        <v>2765</v>
+        <v>1814</v>
       </c>
       <c r="H42">
         <v>34.579000000000001</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4520206122525196E-3</v>
+        <v>4.6153041814802247E-3</v>
       </c>
       <c r="J42">
         <v>5</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32632732773245643</v>
+        <v>0.23050834083651495</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -5220,17 +5804,31 @@
       <c r="AI42">
         <v>0.4</v>
       </c>
+      <c r="AJ42">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.0013468583844293E-2</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AL42">
+        <v>1233</v>
+      </c>
+      <c r="AM42">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B43">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>5402</v>
+        <v>4701</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
@@ -5244,21 +5842,21 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="2"/>
-        <v>2845</v>
+        <v>2241</v>
       </c>
       <c r="H43">
         <v>34.579000000000001</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6538309944472288E-3</v>
+        <v>1.0308058026759616E-3</v>
       </c>
       <c r="J43">
         <v>5</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47796336120095667</v>
+        <v>0.44647364277940965</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -5332,17 +5930,31 @@
       <c r="AI43">
         <v>0.4</v>
       </c>
+      <c r="AJ43">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.17029281908181276</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" ca="1" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AL43">
+        <v>1233</v>
+      </c>
+      <c r="AM43">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B44">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>4911</v>
+        <v>4487</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
@@ -5356,21 +5968,21 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="2"/>
-        <v>2251</v>
+        <v>1557</v>
       </c>
       <c r="H44">
         <v>34.579000000000001</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6561553272955816E-3</v>
+        <v>6.3141998741273742E-3</v>
       </c>
       <c r="J44">
         <v>5</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5192710697659595E-2</v>
+        <v>0.41761436083179787</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -5444,17 +6056,31 @@
       <c r="AI44">
         <v>0.4</v>
       </c>
+      <c r="AJ44">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.17845341606063436</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AL44">
+        <v>1233</v>
+      </c>
+      <c r="AM44">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B45">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>4667</v>
+        <v>4031</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
@@ -5468,21 +6094,21 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="2"/>
-        <v>1441</v>
+        <v>1544</v>
       </c>
       <c r="H45">
         <v>34.579000000000001</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0265951466380862E-3</v>
+        <v>5.4638162236015312E-3</v>
       </c>
       <c r="J45">
         <v>5</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="4"/>
-        <v>9.4830899601249852E-2</v>
+        <v>0.44743217711964411</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -5556,17 +6182,31 @@
       <c r="AI45">
         <v>0.4</v>
       </c>
+      <c r="AJ45">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.14762025611028873</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AL45">
+        <v>1233</v>
+      </c>
+      <c r="AM45">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B46">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>4472</v>
+        <v>4943</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
@@ -5580,21 +6220,21 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="2"/>
-        <v>2803</v>
+        <v>2408</v>
       </c>
       <c r="H46">
         <v>34.579000000000001</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9605812707615013E-3</v>
+        <v>1.5701171895449288E-3</v>
       </c>
       <c r="J46">
         <v>5</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36184011852376874</v>
+        <v>0.4202500578041794</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -5668,17 +6308,31 @@
       <c r="AI46">
         <v>0.4</v>
       </c>
+      <c r="AJ46">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.8434998199493275E-2</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="AL46">
+        <v>1233</v>
+      </c>
+      <c r="AM46">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B47">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>5252</v>
+        <v>4617</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
@@ -5692,21 +6346,21 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="2"/>
-        <v>2706</v>
+        <v>2879</v>
       </c>
       <c r="H47">
         <v>34.579000000000001</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="3"/>
-        <v>3.947879237430894E-3</v>
+        <v>1.1442283710279788E-4</v>
       </c>
       <c r="J47">
         <v>5</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2060139077152976</v>
+        <v>3.4781234515873394E-2</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -5780,17 +6434,31 @@
       <c r="AI47">
         <v>0.4</v>
       </c>
+      <c r="AJ47">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.2934565080370164E-2</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AL47">
+        <v>1233</v>
+      </c>
+      <c r="AM47">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B48">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>5851</v>
+        <v>4867</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
@@ -5804,21 +6472,21 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="2"/>
-        <v>2135</v>
+        <v>1232</v>
       </c>
       <c r="H48">
         <v>34.579000000000001</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5172625881062128E-3</v>
+        <v>4.2288896277596893E-3</v>
       </c>
       <c r="J48">
         <v>5</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35105610560107936</v>
+        <v>0.35035332346373022</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -5892,17 +6560,31 @@
       <c r="AI48">
         <v>0.4</v>
       </c>
+      <c r="AJ48">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.19091471476315403</v>
+      </c>
+      <c r="AK48">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AL48">
+        <v>1233</v>
+      </c>
+      <c r="AM48">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B49">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>4991</v>
+        <v>4973</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
@@ -5916,21 +6598,21 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="2"/>
-        <v>1151</v>
+        <v>1994</v>
       </c>
       <c r="H49">
         <v>34.579000000000001</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4818876986888598E-3</v>
+        <v>5.1094135421598979E-3</v>
       </c>
       <c r="J49">
         <v>5</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44871423641629504</v>
+        <v>8.9220075621638306E-2</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -6004,17 +6686,31 @@
       <c r="AI49">
         <v>0.4</v>
       </c>
+      <c r="AJ49">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.11802924702990812</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AL49">
+        <v>1233</v>
+      </c>
+      <c r="AM49">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B50">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>5043</v>
+        <v>4637</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
@@ -6028,21 +6724,21 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="2"/>
-        <v>1348</v>
+        <v>1388</v>
       </c>
       <c r="H50">
         <v>34.579000000000001</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0933801344469724E-3</v>
+        <v>3.8807125706646229E-3</v>
       </c>
       <c r="J50">
         <v>5</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38916604849225622</v>
+        <v>9.4065012335123599E-2</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -6116,17 +6812,31 @@
       <c r="AI50">
         <v>0.4</v>
       </c>
+      <c r="AJ50">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.5479747642425825E-2</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="AL50">
+        <v>1233</v>
+      </c>
+      <c r="AM50">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B51">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>5741</v>
+        <v>4205</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
@@ -6140,21 +6850,21 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="2"/>
-        <v>1517</v>
+        <v>2255</v>
       </c>
       <c r="H51">
         <v>34.579000000000001</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6819343622885265E-4</v>
+        <v>4.9088686045962245E-4</v>
       </c>
       <c r="J51">
         <v>5</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27877527756421788</v>
+        <v>0.40301270598056893</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -6228,17 +6938,31 @@
       <c r="AI51">
         <v>0.4</v>
       </c>
+      <c r="AJ51">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.19940190933195784</v>
+      </c>
+      <c r="AK51">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AL51">
+        <v>1233</v>
+      </c>
+      <c r="AM51">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B52">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>5331</v>
+        <v>5140</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
@@ -6252,21 +6976,21 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="2"/>
-        <v>1523</v>
+        <v>1823</v>
       </c>
       <c r="H52">
         <v>34.579000000000001</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9354285775216828E-3</v>
+        <v>1.4014747343000921E-3</v>
       </c>
       <c r="J52">
         <v>5</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48645015770179789</v>
+        <v>0.18768635166263198</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -6340,17 +7064,31 @@
       <c r="AI52">
         <v>0.4</v>
       </c>
+      <c r="AJ52">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.1328224474346767E-2</v>
+      </c>
+      <c r="AK52">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AL52">
+        <v>1233</v>
+      </c>
+      <c r="AM52">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B53">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>4781</v>
+        <v>5009</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
@@ -6364,21 +7102,21 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="2"/>
-        <v>2234</v>
+        <v>1846</v>
       </c>
       <c r="H53">
         <v>34.579000000000001</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8457693564821616E-3</v>
+        <v>9.3892487468934932E-4</v>
       </c>
       <c r="J53">
         <v>5</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37522687936759408</v>
+        <v>0.18021834596846015</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -6452,17 +7190,31 @@
       <c r="AI53">
         <v>0.4</v>
       </c>
+      <c r="AJ53">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.6417044806730233E-2</v>
+      </c>
+      <c r="AK53">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AL53">
+        <v>1233</v>
+      </c>
+      <c r="AM53">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B54">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>4616</v>
+        <v>4885</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
@@ -6476,21 +7228,21 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="2"/>
-        <v>2753</v>
+        <v>1233</v>
       </c>
       <c r="H54">
         <v>34.579000000000001</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8214514603769061E-3</v>
+        <v>1.7917003123397587E-3</v>
       </c>
       <c r="J54">
         <v>5</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20162680081051093</v>
+        <v>0.27593718658042926</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -6564,17 +7316,31 @@
       <c r="AI54">
         <v>0.4</v>
       </c>
+      <c r="AJ54">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.2778973477556611E-2</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" ca="1" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AL54">
+        <v>1233</v>
+      </c>
+      <c r="AM54">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B55">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>5540</v>
+        <v>5586</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
@@ -6588,21 +7354,21 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="2"/>
-        <v>1376</v>
+        <v>2599</v>
       </c>
       <c r="H55">
         <v>34.579000000000001</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8678052350953047E-4</v>
+        <v>6.253182499796419E-3</v>
       </c>
       <c r="J55">
         <v>5</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38334611901480609</v>
+        <v>0.12180187937261805</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -6676,17 +7442,31 @@
       <c r="AI55">
         <v>0.4</v>
       </c>
+      <c r="AJ55">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.12906452885274738</v>
+      </c>
+      <c r="AK55">
+        <f t="shared" ca="1" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AL55">
+        <v>1233</v>
+      </c>
+      <c r="AM55">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B56">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>5361</v>
+        <v>5970</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="1"/>
@@ -6700,21 +7480,21 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="2"/>
-        <v>1235</v>
+        <v>2136</v>
       </c>
       <c r="H56">
         <v>34.579000000000001</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3859985258175114E-3</v>
+        <v>3.276113391189577E-3</v>
       </c>
       <c r="J56">
         <v>5</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35147141018775124</v>
+        <v>0.21743879662814453</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -6788,17 +7568,31 @@
       <c r="AI56">
         <v>0.4</v>
       </c>
+      <c r="AJ56">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.3827151162324367E-2</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AL56">
+        <v>1233</v>
+      </c>
+      <c r="AM56">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B57">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>4870</v>
+        <v>5740</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="1"/>
@@ -6812,21 +7606,21 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="2"/>
-        <v>1315</v>
+        <v>2945</v>
       </c>
       <c r="H57">
         <v>34.579000000000001</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0754874957276786E-3</v>
+        <v>5.5213484740723471E-3</v>
       </c>
       <c r="J57">
         <v>5</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30238065323914443</v>
+        <v>0.27453061333280365</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -6900,17 +7694,31 @@
       <c r="AI57">
         <v>0.4</v>
       </c>
+      <c r="AJ57">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1582717989204008</v>
+      </c>
+      <c r="AK57">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="AL57">
+        <v>1233</v>
+      </c>
+      <c r="AM57">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B58">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>4775</v>
+        <v>5980</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="1"/>
@@ -6924,21 +7732,21 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="2"/>
-        <v>1023</v>
+        <v>1835</v>
       </c>
       <c r="H58">
         <v>34.579000000000001</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3332842055802742E-4</v>
+        <v>4.1429050634309676E-3</v>
       </c>
       <c r="J58">
         <v>5</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="4"/>
-        <v>6.5857379088782919E-2</v>
+        <v>4.3038372374202327E-2</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -7012,17 +7820,31 @@
       <c r="AI58">
         <v>0.4</v>
       </c>
+      <c r="AJ58">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.11956322264331198</v>
+      </c>
+      <c r="AK58">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AL58">
+        <v>1233</v>
+      </c>
+      <c r="AM58">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B59">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>5728</v>
+        <v>4477</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="1"/>
@@ -7036,21 +7858,21 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="2"/>
-        <v>2734</v>
+        <v>1850</v>
       </c>
       <c r="H59">
         <v>34.579000000000001</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1482678434576469E-4</v>
+        <v>4.5985704193042308E-3</v>
       </c>
       <c r="J59">
         <v>5</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15070054980799691</v>
+        <v>3.0539490047665707E-2</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -7124,17 +7946,31 @@
       <c r="AI59">
         <v>0.4</v>
       </c>
+      <c r="AJ59">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.6725053062401145E-2</v>
+      </c>
+      <c r="AK59">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AL59">
+        <v>1233</v>
+      </c>
+      <c r="AM59">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B60">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>5670</v>
+        <v>5312</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="1"/>
@@ -7148,21 +7984,21 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="2"/>
-        <v>2091</v>
+        <v>2038</v>
       </c>
       <c r="H60">
         <v>34.579000000000001</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7148348280569166E-3</v>
+        <v>8.3855392828403842E-4</v>
       </c>
       <c r="J60">
         <v>5</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12533344362870619</v>
+        <v>0.48318922048746715</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -7236,17 +8072,31 @@
       <c r="AI60">
         <v>0.4</v>
       </c>
+      <c r="AJ60">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.3595719800334281E-3</v>
+      </c>
+      <c r="AK60">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="AL60">
+        <v>1233</v>
+      </c>
+      <c r="AM60">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B61">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>5335</v>
+        <v>4112</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="1"/>
@@ -7260,21 +8110,21 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="2"/>
-        <v>1524</v>
+        <v>1899</v>
       </c>
       <c r="H61">
         <v>34.579000000000001</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1242152378393919E-3</v>
+        <v>2.5444468508800032E-4</v>
       </c>
       <c r="J61">
         <v>5</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11051592706518376</v>
+        <v>0.33573920654510858</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -7348,17 +8198,31 @@
       <c r="AI61">
         <v>0.4</v>
       </c>
+      <c r="AJ61">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.8974648527173472E-2</v>
+      </c>
+      <c r="AK61">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="AL61">
+        <v>1233</v>
+      </c>
+      <c r="AM61">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B62">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>4553</v>
+        <v>5493</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="1"/>
@@ -7372,21 +8236,21 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="2"/>
-        <v>1342</v>
+        <v>2323</v>
       </c>
       <c r="H62">
         <v>34.579000000000001</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3866371809480451E-4</v>
+        <v>1.8957087145758979E-3</v>
       </c>
       <c r="J62">
         <v>5</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43566076836683965</v>
+        <v>0.1319935323552508</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -7460,17 +8324,31 @@
       <c r="AI62">
         <v>0.4</v>
       </c>
+      <c r="AJ62">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.1668519645932587E-3</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AL62">
+        <v>1233</v>
+      </c>
+      <c r="AM62">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B63">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>5543</v>
+        <v>5974</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="1"/>
@@ -7484,21 +8362,21 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="2"/>
-        <v>2625</v>
+        <v>2541</v>
       </c>
       <c r="H63">
         <v>34.579000000000001</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8474111678683315E-3</v>
+        <v>1.5303467949463836E-3</v>
       </c>
       <c r="J63">
         <v>5</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37023794933275767</v>
+        <v>9.0315818630760658E-2</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -7572,17 +8450,31 @@
       <c r="AI63">
         <v>0.4</v>
       </c>
+      <c r="AJ63">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.9591228926502149E-3</v>
+      </c>
+      <c r="AK63">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AL63">
+        <v>1233</v>
+      </c>
+      <c r="AM63">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B64">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>4471</v>
+        <v>4867</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="1"/>
@@ -7596,21 +8488,21 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="2"/>
-        <v>2942</v>
+        <v>2506</v>
       </c>
       <c r="H64">
         <v>34.579000000000001</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1618155385125081E-3</v>
+        <v>2.387054888737221E-3</v>
       </c>
       <c r="J64">
         <v>5</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2004028995231821E-2</v>
+        <v>0.33966080364926865</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -7684,17 +8576,31 @@
       <c r="AI64">
         <v>0.4</v>
       </c>
+      <c r="AJ64">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.2880724547655706E-2</v>
+      </c>
+      <c r="AK64">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AL64">
+        <v>1233</v>
+      </c>
+      <c r="AM64">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B65">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>5780</v>
+        <v>5856</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="1"/>
@@ -7708,21 +8614,21 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="2"/>
-        <v>2252</v>
+        <v>1915</v>
       </c>
       <c r="H65">
         <v>34.579000000000001</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7994477533240161E-3</v>
+        <v>1.1112959790036884E-3</v>
       </c>
       <c r="J65">
         <v>5</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40830682254025236</v>
+        <v>0.39736127960620088</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -7796,17 +8702,31 @@
       <c r="AI65">
         <v>0.4</v>
       </c>
+      <c r="AJ65">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.9720643753212214E-2</v>
+      </c>
+      <c r="AK65">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AL65">
+        <v>1233</v>
+      </c>
+      <c r="AM65">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B66">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>4424</v>
+        <v>4279</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="1"/>
@@ -7820,21 +8740,21 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="2"/>
-        <v>1476</v>
+        <v>1782</v>
       </c>
       <c r="H66">
         <v>34.579000000000001</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1296277100072634E-4</v>
+        <v>6.9734130553878743E-3</v>
       </c>
       <c r="J66">
         <v>5</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43649107315987756</v>
+        <v>0.44927331895194145</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -7908,20 +8828,34 @@
       <c r="AI66">
         <v>0.4</v>
       </c>
+      <c r="AJ66">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.9758462401383017E-2</v>
+      </c>
+      <c r="AK66">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="AL66">
+        <v>1233</v>
+      </c>
+      <c r="AM66">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B67">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" ca="1" si="5">RANDBETWEEN(4000,6000)</f>
-        <v>5554</v>
+        <f t="shared" ref="C67:C130" ca="1" si="7">RANDBETWEEN(4000,6000)</f>
+        <v>5248</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" ca="1" si="6">RANDBETWEEN(0.5,1.5)</f>
+        <f t="shared" ref="D67:D130" ca="1" si="8">RANDBETWEEN(0.5,1.5)</f>
         <v>1</v>
       </c>
       <c r="E67">
@@ -7931,22 +8865,22 @@
         <v>0.4</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" ca="1" si="7">RANDBETWEEN(1000,3000)</f>
-        <v>2933</v>
+        <f t="shared" ref="G67:G130" ca="1" si="9">RANDBETWEEN(1000,3000)</f>
+        <v>1408</v>
       </c>
       <c r="H67">
         <v>34.579000000000001</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" ca="1" si="8">0.007*RAND()</f>
-        <v>2.1125618815288536E-3</v>
+        <f t="shared" ref="I67:I130" ca="1" si="10">0.007*RAND()</f>
+        <v>3.8852485504532433E-3</v>
       </c>
       <c r="J67">
         <v>5</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" ca="1" si="9">0.5*RAND()</f>
-        <v>0.47491574805928488</v>
+        <f t="shared" ref="K67:K130" ca="1" si="11">0.5*RAND()</f>
+        <v>0.26857924008508854</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -8020,20 +8954,34 @@
       <c r="AI67">
         <v>0.4</v>
       </c>
+      <c r="AJ67">
+        <f t="shared" ref="AJ67:AJ130" ca="1" si="12">RAND()*0.2</f>
+        <v>0.17664010087186899</v>
+      </c>
+      <c r="AK67">
+        <f t="shared" ref="AK67:AK130" ca="1" si="13">RANDBETWEEN(5,20)</f>
+        <v>12</v>
+      </c>
+      <c r="AL67">
+        <v>1233</v>
+      </c>
+      <c r="AM67">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B68">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C68">
-        <f t="shared" ca="1" si="5"/>
-        <v>4918</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4822</v>
       </c>
       <c r="D68">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E68">
@@ -8043,22 +8991,22 @@
         <v>0.4</v>
       </c>
       <c r="G68">
-        <f t="shared" ca="1" si="7"/>
-        <v>1140</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2878</v>
       </c>
       <c r="H68">
         <v>34.579000000000001</v>
       </c>
       <c r="I68">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.4886576456191936E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>9.6562764898595717E-5</v>
       </c>
       <c r="J68">
         <v>5</v>
       </c>
       <c r="K68">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.17916286298904133</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.18261616966419908</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -8132,20 +9080,34 @@
       <c r="AI68">
         <v>0.4</v>
       </c>
+      <c r="AJ68">
+        <f t="shared" ca="1" si="12"/>
+        <v>2.2592840432491726E-2</v>
+      </c>
+      <c r="AK68">
+        <f t="shared" ca="1" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="AL68">
+        <v>1233</v>
+      </c>
+      <c r="AM68">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B69">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C69">
-        <f t="shared" ca="1" si="5"/>
-        <v>5774</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5514</v>
       </c>
       <c r="D69">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E69">
@@ -8155,22 +9117,22 @@
         <v>0.4</v>
       </c>
       <c r="G69">
-        <f t="shared" ca="1" si="7"/>
-        <v>1681</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2847</v>
       </c>
       <c r="H69">
         <v>34.579000000000001</v>
       </c>
       <c r="I69">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.3979953108731718E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.6127308991048719E-3</v>
       </c>
       <c r="J69">
         <v>5</v>
       </c>
       <c r="K69">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.48660984653268657</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.45001365481642142</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -8244,20 +9206,34 @@
       <c r="AI69">
         <v>0.4</v>
       </c>
+      <c r="AJ69">
+        <f t="shared" ca="1" si="12"/>
+        <v>2.3895059624170711E-2</v>
+      </c>
+      <c r="AK69">
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="AL69">
+        <v>1233</v>
+      </c>
+      <c r="AM69">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B70">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C70">
-        <f t="shared" ca="1" si="5"/>
-        <v>5941</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4904</v>
       </c>
       <c r="D70">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E70">
@@ -8267,22 +9243,22 @@
         <v>0.4</v>
       </c>
       <c r="G70">
-        <f t="shared" ca="1" si="7"/>
-        <v>1090</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1552</v>
       </c>
       <c r="H70">
         <v>34.579000000000001</v>
       </c>
       <c r="I70">
-        <f t="shared" ca="1" si="8"/>
-        <v>5.6549375803171403E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.0281398791266378E-3</v>
       </c>
       <c r="J70">
         <v>5</v>
       </c>
       <c r="K70">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.6964223949096302E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.23252631794758277</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -8356,20 +9332,34 @@
       <c r="AI70">
         <v>0.4</v>
       </c>
+      <c r="AJ70">
+        <f t="shared" ca="1" si="12"/>
+        <v>9.4575838111913557E-2</v>
+      </c>
+      <c r="AK70">
+        <f t="shared" ca="1" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="AL70">
+        <v>1233</v>
+      </c>
+      <c r="AM70">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B71">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C71">
-        <f t="shared" ca="1" si="5"/>
-        <v>4113</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5899</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E71">
@@ -8379,22 +9369,22 @@
         <v>0.4</v>
       </c>
       <c r="G71">
-        <f t="shared" ca="1" si="7"/>
-        <v>2610</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1302</v>
       </c>
       <c r="H71">
         <v>34.579000000000001</v>
       </c>
       <c r="I71">
-        <f t="shared" ca="1" si="8"/>
-        <v>5.8961899624250863E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.599405305284656E-3</v>
       </c>
       <c r="J71">
         <v>5</v>
       </c>
       <c r="K71">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.9247269709755708E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.37542195531496148</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -8468,20 +9458,34 @@
       <c r="AI71">
         <v>0.4</v>
       </c>
+      <c r="AJ71">
+        <f t="shared" ca="1" si="12"/>
+        <v>5.0171387927226002E-2</v>
+      </c>
+      <c r="AK71">
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="AL71">
+        <v>1233</v>
+      </c>
+      <c r="AM71">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B72">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C72">
-        <f t="shared" ca="1" si="5"/>
-        <v>4471</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5072</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E72">
@@ -8491,22 +9495,22 @@
         <v>0.4</v>
       </c>
       <c r="G72">
-        <f t="shared" ca="1" si="7"/>
-        <v>1712</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2455</v>
       </c>
       <c r="H72">
         <v>34.579000000000001</v>
       </c>
       <c r="I72">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.7068035190591124E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.805926143578566E-3</v>
       </c>
       <c r="J72">
         <v>5</v>
       </c>
       <c r="K72">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.45392401939772614</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.10267916337445376</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -8580,20 +9584,34 @@
       <c r="AI72">
         <v>0.4</v>
       </c>
+      <c r="AJ72">
+        <f t="shared" ca="1" si="12"/>
+        <v>8.5544656192766799E-2</v>
+      </c>
+      <c r="AK72">
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="AL72">
+        <v>1233</v>
+      </c>
+      <c r="AM72">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B73">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C73">
-        <f t="shared" ca="1" si="5"/>
-        <v>4768</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5072</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E73">
@@ -8603,22 +9621,22 @@
         <v>0.4</v>
       </c>
       <c r="G73">
-        <f t="shared" ca="1" si="7"/>
-        <v>2425</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2835</v>
       </c>
       <c r="H73">
         <v>34.579000000000001</v>
       </c>
       <c r="I73">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.2029450517859536E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.7926693126887707E-3</v>
       </c>
       <c r="J73">
         <v>5</v>
       </c>
       <c r="K73">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.34079453188015812</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.16562776943567126</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -8692,20 +9710,34 @@
       <c r="AI73">
         <v>0.4</v>
       </c>
+      <c r="AJ73">
+        <f t="shared" ca="1" si="12"/>
+        <v>6.3765147674894496E-2</v>
+      </c>
+      <c r="AK73">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AL73">
+        <v>1233</v>
+      </c>
+      <c r="AM73">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B74">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C74">
-        <f t="shared" ca="1" si="5"/>
-        <v>4002</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5741</v>
       </c>
       <c r="D74">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E74">
@@ -8715,22 +9747,22 @@
         <v>0.4</v>
       </c>
       <c r="G74">
-        <f t="shared" ca="1" si="7"/>
-        <v>1410</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1426</v>
       </c>
       <c r="H74">
         <v>34.579000000000001</v>
       </c>
       <c r="I74">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.3274866655421426E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.130232303797763E-4</v>
       </c>
       <c r="J74">
         <v>5</v>
       </c>
       <c r="K74">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.37085125027573923</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.25896753156021274</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -8804,20 +9836,34 @@
       <c r="AI74">
         <v>0.4</v>
       </c>
+      <c r="AJ74">
+        <f t="shared" ca="1" si="12"/>
+        <v>6.0571265394247467E-2</v>
+      </c>
+      <c r="AK74">
+        <f t="shared" ca="1" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="AL74">
+        <v>1233</v>
+      </c>
+      <c r="AM74">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B75">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C75">
-        <f t="shared" ca="1" si="5"/>
-        <v>5238</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4420</v>
       </c>
       <c r="D75">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E75">
@@ -8827,22 +9873,22 @@
         <v>0.4</v>
       </c>
       <c r="G75">
-        <f t="shared" ca="1" si="7"/>
-        <v>1643</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1127</v>
       </c>
       <c r="H75">
         <v>34.579000000000001</v>
       </c>
       <c r="I75">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.8299281245337316E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.5774385589404881E-3</v>
       </c>
       <c r="J75">
         <v>5</v>
       </c>
       <c r="K75">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.40673267443578914</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.39953077266881237</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -8916,20 +9962,34 @@
       <c r="AI75">
         <v>0.4</v>
       </c>
+      <c r="AJ75">
+        <f t="shared" ca="1" si="12"/>
+        <v>8.5620439172780626E-3</v>
+      </c>
+      <c r="AK75">
+        <f t="shared" ca="1" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="AL75">
+        <v>1233</v>
+      </c>
+      <c r="AM75">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B76">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C76">
-        <f t="shared" ca="1" si="5"/>
-        <v>5199</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4913</v>
       </c>
       <c r="D76">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E76">
@@ -8939,22 +9999,22 @@
         <v>0.4</v>
       </c>
       <c r="G76">
-        <f t="shared" ca="1" si="7"/>
-        <v>2797</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1677</v>
       </c>
       <c r="H76">
         <v>34.579000000000001</v>
       </c>
       <c r="I76">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.9603578584459258E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.1506267520278572E-3</v>
       </c>
       <c r="J76">
         <v>5</v>
       </c>
       <c r="K76">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.27820249576167E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5.2057772006549763E-2</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -9028,20 +10088,34 @@
       <c r="AI76">
         <v>0.4</v>
       </c>
+      <c r="AJ76">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.13931059396859979</v>
+      </c>
+      <c r="AK76">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AL76">
+        <v>1233</v>
+      </c>
+      <c r="AM76">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B77">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C77">
-        <f t="shared" ca="1" si="5"/>
-        <v>4727</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5242</v>
       </c>
       <c r="D77">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E77">
@@ -9051,22 +10125,22 @@
         <v>0.4</v>
       </c>
       <c r="G77">
-        <f t="shared" ca="1" si="7"/>
-        <v>1379</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1567</v>
       </c>
       <c r="H77">
         <v>34.579000000000001</v>
       </c>
       <c r="I77">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.0382389560082114E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.6297399448947856E-3</v>
       </c>
       <c r="J77">
         <v>5</v>
       </c>
       <c r="K77">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.44656517861141964</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.39047569614093747</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -9140,20 +10214,34 @@
       <c r="AI77">
         <v>0.4</v>
       </c>
+      <c r="AJ77">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.11809042080311788</v>
+      </c>
+      <c r="AK77">
+        <f t="shared" ca="1" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="AL77">
+        <v>1233</v>
+      </c>
+      <c r="AM77">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B78">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C78">
-        <f t="shared" ca="1" si="5"/>
-        <v>5462</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4679</v>
       </c>
       <c r="D78">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E78">
@@ -9163,22 +10251,22 @@
         <v>0.4</v>
       </c>
       <c r="G78">
-        <f t="shared" ca="1" si="7"/>
-        <v>2693</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2806</v>
       </c>
       <c r="H78">
         <v>34.579000000000001</v>
       </c>
       <c r="I78">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.3959975112565418E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.4938999240414415E-3</v>
       </c>
       <c r="J78">
         <v>5</v>
       </c>
       <c r="K78">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.12250213851294206</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.17837162659250988</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -9252,20 +10340,34 @@
       <c r="AI78">
         <v>0.4</v>
       </c>
+      <c r="AJ78">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.11468116445875909</v>
+      </c>
+      <c r="AK78">
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="AL78">
+        <v>1233</v>
+      </c>
+      <c r="AM78">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B79">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C79">
-        <f t="shared" ca="1" si="5"/>
-        <v>5360</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5319</v>
       </c>
       <c r="D79">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E79">
@@ -9275,22 +10377,22 @@
         <v>0.4</v>
       </c>
       <c r="G79">
-        <f t="shared" ca="1" si="7"/>
-        <v>1410</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2153</v>
       </c>
       <c r="H79">
         <v>34.579000000000001</v>
       </c>
       <c r="I79">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.4113032136808574E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.378008557956376E-3</v>
       </c>
       <c r="J79">
         <v>5</v>
       </c>
       <c r="K79">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.39748236687518684</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.24301594206122035</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -9364,20 +10466,34 @@
       <c r="AI79">
         <v>0.4</v>
       </c>
+      <c r="AJ79">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.126422430569758E-2</v>
+      </c>
+      <c r="AK79">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="AL79">
+        <v>1233</v>
+      </c>
+      <c r="AM79">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B80">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C80">
-        <f t="shared" ca="1" si="5"/>
-        <v>4801</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5285</v>
       </c>
       <c r="D80">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E80">
@@ -9387,22 +10503,22 @@
         <v>0.4</v>
       </c>
       <c r="G80">
-        <f t="shared" ca="1" si="7"/>
-        <v>1959</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1100</v>
       </c>
       <c r="H80">
         <v>34.579000000000001</v>
       </c>
       <c r="I80">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.7850981681986752E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.0332622606092392E-3</v>
       </c>
       <c r="J80">
         <v>5</v>
       </c>
       <c r="K80">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.18420703298781649</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>8.8266041757885882E-2</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -9476,20 +10592,34 @@
       <c r="AI80">
         <v>0.4</v>
       </c>
+      <c r="AJ80">
+        <f t="shared" ca="1" si="12"/>
+        <v>2.159348386369251E-2</v>
+      </c>
+      <c r="AK80">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="AL80">
+        <v>1233</v>
+      </c>
+      <c r="AM80">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B81">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C81">
-        <f t="shared" ca="1" si="5"/>
-        <v>4075</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4891</v>
       </c>
       <c r="D81">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E81">
@@ -9499,22 +10629,22 @@
         <v>0.4</v>
       </c>
       <c r="G81">
-        <f t="shared" ca="1" si="7"/>
-        <v>1667</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2254</v>
       </c>
       <c r="H81">
         <v>34.579000000000001</v>
       </c>
       <c r="I81">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.143726125182913E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.4981023691345362E-4</v>
       </c>
       <c r="J81">
         <v>5</v>
       </c>
       <c r="K81">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.49499784489868826</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3.6598857138225582E-2</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -9588,20 +10718,34 @@
       <c r="AI81">
         <v>0.4</v>
       </c>
+      <c r="AJ81">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.294475583166399E-2</v>
+      </c>
+      <c r="AK81">
+        <f t="shared" ca="1" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="AL81">
+        <v>1233</v>
+      </c>
+      <c r="AM81">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B82">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C82">
-        <f t="shared" ca="1" si="5"/>
-        <v>4167</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5528</v>
       </c>
       <c r="D82">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E82">
@@ -9611,22 +10755,22 @@
         <v>0.4</v>
       </c>
       <c r="G82">
-        <f t="shared" ca="1" si="7"/>
-        <v>1485</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1779</v>
       </c>
       <c r="H82">
         <v>34.579000000000001</v>
       </c>
       <c r="I82">
-        <f t="shared" ca="1" si="8"/>
-        <v>5.1801637268154661E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.4496801732861304E-4</v>
       </c>
       <c r="J82">
         <v>5</v>
       </c>
       <c r="K82">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.42377926468646271</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.36588073530915394</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -9700,20 +10844,34 @@
       <c r="AI82">
         <v>0.4</v>
       </c>
+      <c r="AJ82">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.13116180042934988</v>
+      </c>
+      <c r="AK82">
+        <f t="shared" ca="1" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="AL82">
+        <v>1233</v>
+      </c>
+      <c r="AM82">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B83">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C83">
-        <f t="shared" ca="1" si="5"/>
-        <v>5997</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5139</v>
       </c>
       <c r="D83">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E83">
@@ -9723,22 +10881,22 @@
         <v>0.4</v>
       </c>
       <c r="G83">
-        <f t="shared" ca="1" si="7"/>
-        <v>1839</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1652</v>
       </c>
       <c r="H83">
         <v>34.579000000000001</v>
       </c>
       <c r="I83">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.5611529636518482E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.142510834526669E-3</v>
       </c>
       <c r="J83">
         <v>5</v>
       </c>
       <c r="K83">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.3297937203173551E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5.5611106550262912E-2</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -9812,20 +10970,34 @@
       <c r="AI83">
         <v>0.4</v>
       </c>
+      <c r="AJ83">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.12272606948518675</v>
+      </c>
+      <c r="AK83">
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="AL83">
+        <v>1233</v>
+      </c>
+      <c r="AM83">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B84">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C84">
-        <f t="shared" ca="1" si="5"/>
-        <v>5132</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4353</v>
       </c>
       <c r="D84">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E84">
@@ -9835,22 +11007,22 @@
         <v>0.4</v>
       </c>
       <c r="G84">
-        <f t="shared" ca="1" si="7"/>
-        <v>1032</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2571</v>
       </c>
       <c r="H84">
         <v>34.579000000000001</v>
       </c>
       <c r="I84">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.0873808553101403E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.3824828848127656E-3</v>
       </c>
       <c r="J84">
         <v>5</v>
       </c>
       <c r="K84">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.27097188759598156</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5.2487307461330734E-2</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -9924,20 +11096,34 @@
       <c r="AI84">
         <v>0.4</v>
       </c>
+      <c r="AJ84">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.211150453021579E-2</v>
+      </c>
+      <c r="AK84">
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="AL84">
+        <v>1233</v>
+      </c>
+      <c r="AM84">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B85">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C85">
-        <f t="shared" ca="1" si="5"/>
-        <v>4433</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4637</v>
       </c>
       <c r="D85">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E85">
@@ -9947,22 +11133,22 @@
         <v>0.4</v>
       </c>
       <c r="G85">
-        <f t="shared" ca="1" si="7"/>
-        <v>1260</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1539</v>
       </c>
       <c r="H85">
         <v>34.579000000000001</v>
       </c>
       <c r="I85">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.2624519678140823E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.8061756718515173E-3</v>
       </c>
       <c r="J85">
         <v>5</v>
       </c>
       <c r="K85">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.25761485735619422</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.33442421360108487</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -10036,20 +11222,34 @@
       <c r="AI85">
         <v>0.4</v>
       </c>
+      <c r="AJ85">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.19223907346602243</v>
+      </c>
+      <c r="AK85">
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="AL85">
+        <v>1233</v>
+      </c>
+      <c r="AM85">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B86">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C86">
-        <f t="shared" ca="1" si="5"/>
-        <v>4215</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4427</v>
       </c>
       <c r="D86">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E86">
@@ -10059,22 +11259,22 @@
         <v>0.4</v>
       </c>
       <c r="G86">
-        <f t="shared" ca="1" si="7"/>
-        <v>2181</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2196</v>
       </c>
       <c r="H86">
         <v>34.579000000000001</v>
       </c>
       <c r="I86">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.8989934540038327E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.0019266030164114E-3</v>
       </c>
       <c r="J86">
         <v>5</v>
       </c>
       <c r="K86">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.30073146950666579</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.27221540518918957</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -10148,20 +11348,34 @@
       <c r="AI86">
         <v>0.4</v>
       </c>
+      <c r="AJ86">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.0238755015977824E-2</v>
+      </c>
+      <c r="AK86">
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="AL86">
+        <v>1233</v>
+      </c>
+      <c r="AM86">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B87">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C87">
-        <f t="shared" ca="1" si="5"/>
-        <v>4394</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4070</v>
       </c>
       <c r="D87">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E87">
@@ -10171,22 +11385,22 @@
         <v>0.4</v>
       </c>
       <c r="G87">
-        <f t="shared" ca="1" si="7"/>
-        <v>1922</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2701</v>
       </c>
       <c r="H87">
         <v>34.579000000000001</v>
       </c>
       <c r="I87">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.4297800146396146E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.6971219395279301E-3</v>
       </c>
       <c r="J87">
         <v>5</v>
       </c>
       <c r="K87">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.14576786932726926</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3.7645711805377069E-2</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -10260,20 +11474,34 @@
       <c r="AI87">
         <v>0.4</v>
       </c>
+      <c r="AJ87">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.16722141798579648</v>
+      </c>
+      <c r="AK87">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="AL87">
+        <v>1233</v>
+      </c>
+      <c r="AM87">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B88">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C88">
-        <f t="shared" ca="1" si="5"/>
-        <v>5120</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4403</v>
       </c>
       <c r="D88">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E88">
@@ -10283,22 +11511,22 @@
         <v>0.4</v>
       </c>
       <c r="G88">
-        <f t="shared" ca="1" si="7"/>
-        <v>2759</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2827</v>
       </c>
       <c r="H88">
         <v>34.579000000000001</v>
       </c>
       <c r="I88">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.2919181242288066E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.3536194933895778E-3</v>
       </c>
       <c r="J88">
         <v>5</v>
       </c>
       <c r="K88">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.27365975764521178</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.20003372826047977</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -10372,20 +11600,34 @@
       <c r="AI88">
         <v>0.4</v>
       </c>
+      <c r="AJ88">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.18240953578103652</v>
+      </c>
+      <c r="AK88">
+        <f t="shared" ca="1" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="AL88">
+        <v>1233</v>
+      </c>
+      <c r="AM88">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B89">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C89">
-        <f t="shared" ca="1" si="5"/>
-        <v>4819</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5938</v>
       </c>
       <c r="D89">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E89">
@@ -10395,22 +11637,22 @@
         <v>0.4</v>
       </c>
       <c r="G89">
-        <f t="shared" ca="1" si="7"/>
-        <v>2906</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2687</v>
       </c>
       <c r="H89">
         <v>34.579000000000001</v>
       </c>
       <c r="I89">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.4837490014156362E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.9069870800582506E-3</v>
       </c>
       <c r="J89">
         <v>5</v>
       </c>
       <c r="K89">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.48664314694927563</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>8.3160542438973084E-2</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -10484,20 +11726,34 @@
       <c r="AI89">
         <v>0.4</v>
       </c>
+      <c r="AJ89">
+        <f t="shared" ca="1" si="12"/>
+        <v>5.4004536392318572E-2</v>
+      </c>
+      <c r="AK89">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="AL89">
+        <v>1233</v>
+      </c>
+      <c r="AM89">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B90">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C90">
-        <f t="shared" ca="1" si="5"/>
-        <v>4320</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4344</v>
       </c>
       <c r="D90">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E90">
@@ -10507,22 +11763,22 @@
         <v>0.4</v>
       </c>
       <c r="G90">
-        <f t="shared" ca="1" si="7"/>
-        <v>2553</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1687</v>
       </c>
       <c r="H90">
         <v>34.579000000000001</v>
       </c>
       <c r="I90">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.2201586850237444E-5</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.6441432245336147E-3</v>
       </c>
       <c r="J90">
         <v>5</v>
       </c>
       <c r="K90">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.0845229898351079E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.35605362363780452</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -10596,20 +11852,34 @@
       <c r="AI90">
         <v>0.4</v>
       </c>
+      <c r="AJ90">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.3437649819811881E-3</v>
+      </c>
+      <c r="AK90">
+        <f t="shared" ca="1" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="AL90">
+        <v>1233</v>
+      </c>
+      <c r="AM90">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B91">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C91">
-        <f t="shared" ca="1" si="5"/>
-        <v>5996</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4016</v>
       </c>
       <c r="D91">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E91">
@@ -10619,22 +11889,22 @@
         <v>0.4</v>
       </c>
       <c r="G91">
-        <f t="shared" ca="1" si="7"/>
-        <v>1674</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2857</v>
       </c>
       <c r="H91">
         <v>34.579000000000001</v>
       </c>
       <c r="I91">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.3489250702581023E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.7909569895706956E-4</v>
       </c>
       <c r="J91">
         <v>5</v>
       </c>
       <c r="K91">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.30865083442321606</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.13321029036969617</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -10708,20 +11978,34 @@
       <c r="AI91">
         <v>0.4</v>
       </c>
+      <c r="AJ91">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.18225887956445233</v>
+      </c>
+      <c r="AK91">
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="AL91">
+        <v>1233</v>
+      </c>
+      <c r="AM91">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B92">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C92">
-        <f t="shared" ca="1" si="5"/>
-        <v>5359</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5254</v>
       </c>
       <c r="D92">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E92">
@@ -10731,22 +12015,22 @@
         <v>0.4</v>
       </c>
       <c r="G92">
-        <f t="shared" ca="1" si="7"/>
-        <v>1709</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2315</v>
       </c>
       <c r="H92">
         <v>34.579000000000001</v>
       </c>
       <c r="I92">
-        <f t="shared" ca="1" si="8"/>
-        <v>8.5925214954572912E-4</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.1795392500414462E-3</v>
       </c>
       <c r="J92">
         <v>5</v>
       </c>
       <c r="K92">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.12538672250161964</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.26582434671119964</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -10820,20 +12104,34 @@
       <c r="AI92">
         <v>0.4</v>
       </c>
+      <c r="AJ92">
+        <f t="shared" ca="1" si="12"/>
+        <v>7.5790978440213264E-2</v>
+      </c>
+      <c r="AK92">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="AL92">
+        <v>1233</v>
+      </c>
+      <c r="AM92">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B93">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C93">
-        <f t="shared" ca="1" si="5"/>
-        <v>5763</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4208</v>
       </c>
       <c r="D93">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E93">
@@ -10843,22 +12141,22 @@
         <v>0.4</v>
       </c>
       <c r="G93">
-        <f t="shared" ca="1" si="7"/>
-        <v>2177</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2425</v>
       </c>
       <c r="H93">
         <v>34.579000000000001</v>
       </c>
       <c r="I93">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.3072563886462633E-6</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.9128338464052472E-3</v>
       </c>
       <c r="J93">
         <v>5</v>
       </c>
       <c r="K93">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.34977598788337577</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.2903828209828403</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -10932,20 +12230,34 @@
       <c r="AI93">
         <v>0.4</v>
       </c>
+      <c r="AJ93">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.17825681150837736</v>
+      </c>
+      <c r="AK93">
+        <f t="shared" ca="1" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="AL93">
+        <v>1233</v>
+      </c>
+      <c r="AM93">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B94">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C94">
-        <f t="shared" ca="1" si="5"/>
-        <v>4214</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4690</v>
       </c>
       <c r="D94">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E94">
@@ -10955,22 +12267,22 @@
         <v>0.4</v>
       </c>
       <c r="G94">
-        <f t="shared" ca="1" si="7"/>
-        <v>1019</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1639</v>
       </c>
       <c r="H94">
         <v>34.579000000000001</v>
       </c>
       <c r="I94">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.8666767232098266E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0949695332418807E-3</v>
       </c>
       <c r="J94">
         <v>5</v>
       </c>
       <c r="K94">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.33338641430395483</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.23601645711520686</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -11044,20 +12356,34 @@
       <c r="AI94">
         <v>0.4</v>
       </c>
+      <c r="AJ94">
+        <f t="shared" ca="1" si="12"/>
+        <v>8.5629153102131803E-2</v>
+      </c>
+      <c r="AK94">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="AL94">
+        <v>1233</v>
+      </c>
+      <c r="AM94">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B95">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C95">
-        <f t="shared" ca="1" si="5"/>
-        <v>4913</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4154</v>
       </c>
       <c r="D95">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E95">
@@ -11067,22 +12393,22 @@
         <v>0.4</v>
       </c>
       <c r="G95">
-        <f t="shared" ca="1" si="7"/>
-        <v>2078</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1524</v>
       </c>
       <c r="H95">
         <v>34.579000000000001</v>
       </c>
       <c r="I95">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.1871114855062648E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.1458760842420734E-4</v>
       </c>
       <c r="J95">
         <v>5</v>
       </c>
       <c r="K95">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.4716572219998067</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>6.6798425296172026E-2</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -11156,20 +12482,34 @@
       <c r="AI95">
         <v>0.4</v>
       </c>
+      <c r="AJ95">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.0256989104893219E-2</v>
+      </c>
+      <c r="AK95">
+        <f t="shared" ca="1" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="AL95">
+        <v>1233</v>
+      </c>
+      <c r="AM95">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B96">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C96">
-        <f t="shared" ca="1" si="5"/>
-        <v>5848</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5173</v>
       </c>
       <c r="D96">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E96">
@@ -11179,22 +12519,22 @@
         <v>0.4</v>
       </c>
       <c r="G96">
-        <f t="shared" ca="1" si="7"/>
-        <v>2278</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1698</v>
       </c>
       <c r="H96">
         <v>34.579000000000001</v>
       </c>
       <c r="I96">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.3985972974418252E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.6818290400557466E-3</v>
       </c>
       <c r="J96">
         <v>5</v>
       </c>
       <c r="K96">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.43848021830846445</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.20141922146910146</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -11268,20 +12608,34 @@
       <c r="AI96">
         <v>0.4</v>
       </c>
+      <c r="AJ96">
+        <f t="shared" ca="1" si="12"/>
+        <v>8.3844352692199836E-2</v>
+      </c>
+      <c r="AK96">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="AL96">
+        <v>1233</v>
+      </c>
+      <c r="AM96">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B97">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C97">
-        <f t="shared" ca="1" si="5"/>
-        <v>5977</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5348</v>
       </c>
       <c r="D97">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E97">
@@ -11291,22 +12645,22 @@
         <v>0.4</v>
       </c>
       <c r="G97">
-        <f t="shared" ca="1" si="7"/>
-        <v>1332</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2284</v>
       </c>
       <c r="H97">
         <v>34.579000000000001</v>
       </c>
       <c r="I97">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.835700451184948E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.5213397215009502E-3</v>
       </c>
       <c r="J97">
         <v>5</v>
       </c>
       <c r="K97">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.873544698393949E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.24276772743299124</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -11380,20 +12734,34 @@
       <c r="AI97">
         <v>0.4</v>
       </c>
+      <c r="AJ97">
+        <f t="shared" ca="1" si="12"/>
+        <v>2.3603943935242788E-2</v>
+      </c>
+      <c r="AK97">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AL97">
+        <v>1233</v>
+      </c>
+      <c r="AM97">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B98">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C98">
-        <f t="shared" ca="1" si="5"/>
-        <v>4413</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5655</v>
       </c>
       <c r="D98">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E98">
@@ -11403,22 +12771,22 @@
         <v>0.4</v>
       </c>
       <c r="G98">
-        <f t="shared" ca="1" si="7"/>
-        <v>2476</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2359</v>
       </c>
       <c r="H98">
         <v>34.579000000000001</v>
       </c>
       <c r="I98">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.9100801694523057E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.5701117456404444E-3</v>
       </c>
       <c r="J98">
         <v>5</v>
       </c>
       <c r="K98">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.34082744910343349</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>7.8553201596464117E-2</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -11492,20 +12860,34 @@
       <c r="AI98">
         <v>0.4</v>
       </c>
+      <c r="AJ98">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.11548347106057844</v>
+      </c>
+      <c r="AK98">
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="AL98">
+        <v>1233</v>
+      </c>
+      <c r="AM98">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B99">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C99">
-        <f t="shared" ca="1" si="5"/>
-        <v>4877</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4396</v>
       </c>
       <c r="D99">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E99">
@@ -11515,22 +12897,22 @@
         <v>0.4</v>
       </c>
       <c r="G99">
-        <f t="shared" ca="1" si="7"/>
-        <v>1952</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1032</v>
       </c>
       <c r="H99">
         <v>34.579000000000001</v>
       </c>
       <c r="I99">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.7712164213992792E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.8353762968967022E-3</v>
       </c>
       <c r="J99">
         <v>5</v>
       </c>
       <c r="K99">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.31507682542529353</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.37903948953281968</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -11604,20 +12986,34 @@
       <c r="AI99">
         <v>0.4</v>
       </c>
+      <c r="AJ99">
+        <f t="shared" ca="1" si="12"/>
+        <v>2.3283693751259785E-2</v>
+      </c>
+      <c r="AK99">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="AL99">
+        <v>1233</v>
+      </c>
+      <c r="AM99">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B100">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C100">
-        <f t="shared" ca="1" si="5"/>
-        <v>5623</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5446</v>
       </c>
       <c r="D100">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E100">
@@ -11627,22 +13023,22 @@
         <v>0.4</v>
       </c>
       <c r="G100">
-        <f t="shared" ca="1" si="7"/>
-        <v>1933</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2606</v>
       </c>
       <c r="H100">
         <v>34.579000000000001</v>
       </c>
       <c r="I100">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.7994062559092989E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2994274492042158E-5</v>
       </c>
       <c r="J100">
         <v>5</v>
       </c>
       <c r="K100">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.2109664353393364</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.39932961537880113</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -11716,20 +13112,34 @@
       <c r="AI100">
         <v>0.4</v>
       </c>
+      <c r="AJ100">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.18430833415296133</v>
+      </c>
+      <c r="AK100">
+        <f t="shared" ca="1" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="AL100">
+        <v>1233</v>
+      </c>
+      <c r="AM100">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B101">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C101">
-        <f t="shared" ca="1" si="5"/>
-        <v>5441</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5784</v>
       </c>
       <c r="D101">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E101">
@@ -11739,22 +13149,22 @@
         <v>0.4</v>
       </c>
       <c r="G101">
-        <f t="shared" ca="1" si="7"/>
-        <v>2969</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2179</v>
       </c>
       <c r="H101">
         <v>34.579000000000001</v>
       </c>
       <c r="I101">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.732103481396693E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.6722140038847589E-3</v>
       </c>
       <c r="J101">
         <v>5</v>
       </c>
       <c r="K101">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.15781734209981613</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.46108354906497334</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -11828,20 +13238,34 @@
       <c r="AI101">
         <v>0.4</v>
       </c>
+      <c r="AJ101">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.0191523268190106E-2</v>
+      </c>
+      <c r="AK101">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="AL101">
+        <v>1233</v>
+      </c>
+      <c r="AM101">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B102">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C102">
-        <f t="shared" ca="1" si="5"/>
-        <v>5716</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5953</v>
       </c>
       <c r="D102">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E102">
@@ -11851,22 +13275,22 @@
         <v>0.4</v>
       </c>
       <c r="G102">
-        <f t="shared" ca="1" si="7"/>
-        <v>1958</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1441</v>
       </c>
       <c r="H102">
         <v>34.579000000000001</v>
       </c>
       <c r="I102">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.7443386090552067E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.9197698378125436E-4</v>
       </c>
       <c r="J102">
         <v>5</v>
       </c>
       <c r="K102">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.2553454696102031</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.29453977642519902</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -11940,20 +13364,34 @@
       <c r="AI102">
         <v>0.4</v>
       </c>
+      <c r="AJ102">
+        <f t="shared" ca="1" si="12"/>
+        <v>7.1097325280297982E-2</v>
+      </c>
+      <c r="AK102">
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="AL102">
+        <v>1233</v>
+      </c>
+      <c r="AM102">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B103">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C103">
-        <f t="shared" ca="1" si="5"/>
-        <v>4009</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4459</v>
       </c>
       <c r="D103">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E103">
@@ -11963,22 +13401,22 @@
         <v>0.4</v>
       </c>
       <c r="G103">
-        <f t="shared" ca="1" si="7"/>
-        <v>2852</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1664</v>
       </c>
       <c r="H103">
         <v>34.579000000000001</v>
       </c>
       <c r="I103">
-        <f t="shared" ca="1" si="8"/>
-        <v>5.6674619290856734E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.6054187543897154E-4</v>
       </c>
       <c r="J103">
         <v>5</v>
       </c>
       <c r="K103">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.15150402628270804</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.41825840806681619</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -12052,20 +13490,34 @@
       <c r="AI103">
         <v>0.4</v>
       </c>
+      <c r="AJ103">
+        <f t="shared" ca="1" si="12"/>
+        <v>8.8333563738921539E-3</v>
+      </c>
+      <c r="AK103">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="AL103">
+        <v>1233</v>
+      </c>
+      <c r="AM103">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B104">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C104">
-        <f t="shared" ca="1" si="5"/>
-        <v>4589</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5345</v>
       </c>
       <c r="D104">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E104">
@@ -12075,22 +13527,22 @@
         <v>0.4</v>
       </c>
       <c r="G104">
-        <f t="shared" ca="1" si="7"/>
-        <v>2865</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1244</v>
       </c>
       <c r="H104">
         <v>34.579000000000001</v>
       </c>
       <c r="I104">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.8695397110125513E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.513805612587505E-3</v>
       </c>
       <c r="J104">
         <v>5</v>
       </c>
       <c r="K104">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.28028555050234188</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.459431423133283</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -12164,20 +13616,34 @@
       <c r="AI104">
         <v>0.4</v>
       </c>
+      <c r="AJ104">
+        <f t="shared" ca="1" si="12"/>
+        <v>3.8011834621434495E-2</v>
+      </c>
+      <c r="AK104">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="AL104">
+        <v>1233</v>
+      </c>
+      <c r="AM104">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B105">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C105">
-        <f t="shared" ca="1" si="5"/>
-        <v>5473</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4349</v>
       </c>
       <c r="D105">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E105">
@@ -12187,22 +13653,22 @@
         <v>0.4</v>
       </c>
       <c r="G105">
-        <f t="shared" ca="1" si="7"/>
-        <v>1446</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1291</v>
       </c>
       <c r="H105">
         <v>34.579000000000001</v>
       </c>
       <c r="I105">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.7858472860619473E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.7012212093638665E-3</v>
       </c>
       <c r="J105">
         <v>5</v>
       </c>
       <c r="K105">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.49543605406031493</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.40166156144452642</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -12276,20 +13742,34 @@
       <c r="AI105">
         <v>0.4</v>
       </c>
+      <c r="AJ105">
+        <f t="shared" ca="1" si="12"/>
+        <v>3.3139751433179668E-2</v>
+      </c>
+      <c r="AK105">
+        <f t="shared" ca="1" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="AL105">
+        <v>1233</v>
+      </c>
+      <c r="AM105">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B106">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C106">
-        <f t="shared" ca="1" si="5"/>
-        <v>4119</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4842</v>
       </c>
       <c r="D106">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E106">
@@ -12299,22 +13779,22 @@
         <v>0.4</v>
       </c>
       <c r="G106">
-        <f t="shared" ca="1" si="7"/>
-        <v>1112</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1353</v>
       </c>
       <c r="H106">
         <v>34.579000000000001</v>
       </c>
       <c r="I106">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.5676865966950211E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.9248688882285729E-3</v>
       </c>
       <c r="J106">
         <v>5</v>
       </c>
       <c r="K106">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.4606803754582765</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.28036791337125211</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -12388,20 +13868,34 @@
       <c r="AI106">
         <v>0.4</v>
       </c>
+      <c r="AJ106">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.16722191356813892</v>
+      </c>
+      <c r="AK106">
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="AL106">
+        <v>1233</v>
+      </c>
+      <c r="AM106">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B107">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C107">
-        <f t="shared" ca="1" si="5"/>
-        <v>5276</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4825</v>
       </c>
       <c r="D107">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E107">
@@ -12411,22 +13905,22 @@
         <v>0.4</v>
       </c>
       <c r="G107">
-        <f t="shared" ca="1" si="7"/>
-        <v>2222</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1316</v>
       </c>
       <c r="H107">
         <v>34.579000000000001</v>
       </c>
       <c r="I107">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.3622074054574523E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1466579540534798E-3</v>
       </c>
       <c r="J107">
         <v>5</v>
       </c>
       <c r="K107">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.17425055526359245</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.45763944901712983</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -12500,20 +13994,34 @@
       <c r="AI107">
         <v>0.4</v>
       </c>
+      <c r="AJ107">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.1269484317332378E-2</v>
+      </c>
+      <c r="AK107">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="AL107">
+        <v>1233</v>
+      </c>
+      <c r="AM107">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B108">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C108">
-        <f t="shared" ca="1" si="5"/>
-        <v>4739</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5166</v>
       </c>
       <c r="D108">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E108">
@@ -12523,22 +14031,22 @@
         <v>0.4</v>
       </c>
       <c r="G108">
-        <f t="shared" ca="1" si="7"/>
-        <v>2129</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2539</v>
       </c>
       <c r="H108">
         <v>34.579000000000001</v>
       </c>
       <c r="I108">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.9975436014235733E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.9959876974501934E-3</v>
       </c>
       <c r="J108">
         <v>5</v>
       </c>
       <c r="K108">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.10311894645774922</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.44875611910712421</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -12612,20 +14120,34 @@
       <c r="AI108">
         <v>0.4</v>
       </c>
+      <c r="AJ108">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.14761817651849132</v>
+      </c>
+      <c r="AK108">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="AL108">
+        <v>1233</v>
+      </c>
+      <c r="AM108">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B109">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C109">
-        <f t="shared" ca="1" si="5"/>
-        <v>5520</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4361</v>
       </c>
       <c r="D109">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E109">
@@ -12635,22 +14157,22 @@
         <v>0.4</v>
       </c>
       <c r="G109">
-        <f t="shared" ca="1" si="7"/>
-        <v>2164</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1298</v>
       </c>
       <c r="H109">
         <v>34.579000000000001</v>
       </c>
       <c r="I109">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.8215775503786599E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.4864924944612826E-3</v>
       </c>
       <c r="J109">
         <v>5</v>
       </c>
       <c r="K109">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.2074784876541962E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.32486682068380085</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -12724,20 +14246,34 @@
       <c r="AI109">
         <v>0.4</v>
       </c>
+      <c r="AJ109">
+        <f t="shared" ca="1" si="12"/>
+        <v>3.5883654310500737E-2</v>
+      </c>
+      <c r="AK109">
+        <f t="shared" ca="1" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="AL109">
+        <v>1233</v>
+      </c>
+      <c r="AM109">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B110">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C110">
-        <f t="shared" ca="1" si="5"/>
-        <v>5861</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5862</v>
       </c>
       <c r="D110">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E110">
@@ -12747,22 +14283,22 @@
         <v>0.4</v>
       </c>
       <c r="G110">
-        <f t="shared" ca="1" si="7"/>
-        <v>2413</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1486</v>
       </c>
       <c r="H110">
         <v>34.579000000000001</v>
       </c>
       <c r="I110">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.6709981824574016E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.7016932724248225E-3</v>
       </c>
       <c r="J110">
         <v>5</v>
       </c>
       <c r="K110">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.49691519200018081</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.19489514937097907</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -12836,20 +14372,34 @@
       <c r="AI110">
         <v>0.4</v>
       </c>
+      <c r="AJ110">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.3949837906371927E-2</v>
+      </c>
+      <c r="AK110">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="AL110">
+        <v>1233</v>
+      </c>
+      <c r="AM110">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B111">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C111">
-        <f t="shared" ca="1" si="5"/>
-        <v>5559</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5146</v>
       </c>
       <c r="D111">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E111">
@@ -12859,22 +14409,22 @@
         <v>0.4</v>
       </c>
       <c r="G111">
-        <f t="shared" ca="1" si="7"/>
-        <v>1875</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1588</v>
       </c>
       <c r="H111">
         <v>34.579000000000001</v>
       </c>
       <c r="I111">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.6596062320537587E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.2221613195196663E-3</v>
       </c>
       <c r="J111">
         <v>5</v>
       </c>
       <c r="K111">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.24222670088030862</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.29829756520974859</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -12948,20 +14498,34 @@
       <c r="AI111">
         <v>0.4</v>
       </c>
+      <c r="AJ111">
+        <f t="shared" ca="1" si="12"/>
+        <v>9.2524883981162417E-2</v>
+      </c>
+      <c r="AK111">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="AL111">
+        <v>1233</v>
+      </c>
+      <c r="AM111">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B112">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C112">
-        <f t="shared" ca="1" si="5"/>
-        <v>4849</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4955</v>
       </c>
       <c r="D112">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E112">
@@ -12971,22 +14535,22 @@
         <v>0.4</v>
       </c>
       <c r="G112">
-        <f t="shared" ca="1" si="7"/>
-        <v>2291</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2011</v>
       </c>
       <c r="H112">
         <v>34.579000000000001</v>
       </c>
       <c r="I112">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.2829026643351849E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.7299162874602581E-3</v>
       </c>
       <c r="J112">
         <v>5</v>
       </c>
       <c r="K112">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.48515287364983367</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.46197899179628948</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -13060,20 +14624,34 @@
       <c r="AI112">
         <v>0.4</v>
       </c>
+      <c r="AJ112">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.5976567589475611E-2</v>
+      </c>
+      <c r="AK112">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="AL112">
+        <v>1233</v>
+      </c>
+      <c r="AM112">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B113">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C113">
-        <f t="shared" ca="1" si="5"/>
-        <v>4136</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5828</v>
       </c>
       <c r="D113">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E113">
@@ -13083,22 +14661,22 @@
         <v>0.4</v>
       </c>
       <c r="G113">
-        <f t="shared" ca="1" si="7"/>
-        <v>2041</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2689</v>
       </c>
       <c r="H113">
         <v>34.579000000000001</v>
       </c>
       <c r="I113">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.7760209724660962E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2212479071288754E-3</v>
       </c>
       <c r="J113">
         <v>5</v>
       </c>
       <c r="K113">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.12032230073830685</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>8.1620470321591976E-2</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -13172,20 +14750,34 @@
       <c r="AI113">
         <v>0.4</v>
       </c>
+      <c r="AJ113">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.5156989738883269E-2</v>
+      </c>
+      <c r="AK113">
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="AL113">
+        <v>1233</v>
+      </c>
+      <c r="AM113">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B114">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C114">
-        <f t="shared" ca="1" si="5"/>
-        <v>4575</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5391</v>
       </c>
       <c r="D114">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E114">
@@ -13195,22 +14787,22 @@
         <v>0.4</v>
       </c>
       <c r="G114">
-        <f t="shared" ca="1" si="7"/>
-        <v>1480</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1825</v>
       </c>
       <c r="H114">
         <v>34.579000000000001</v>
       </c>
       <c r="I114">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.0947382445059832E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.7035714818767748E-3</v>
       </c>
       <c r="J114">
         <v>5</v>
       </c>
       <c r="K114">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.19972517606842005</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>8.1582410307809994E-3</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -13284,20 +14876,34 @@
       <c r="AI114">
         <v>0.4</v>
       </c>
+      <c r="AJ114">
+        <f t="shared" ca="1" si="12"/>
+        <v>2.3371243983240308E-2</v>
+      </c>
+      <c r="AK114">
+        <f t="shared" ca="1" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="AL114">
+        <v>1233</v>
+      </c>
+      <c r="AM114">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B115">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C115">
-        <f t="shared" ca="1" si="5"/>
-        <v>5022</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4637</v>
       </c>
       <c r="D115">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E115">
@@ -13307,22 +14913,22 @@
         <v>0.4</v>
       </c>
       <c r="G115">
-        <f t="shared" ca="1" si="7"/>
-        <v>1121</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1707</v>
       </c>
       <c r="H115">
         <v>34.579000000000001</v>
       </c>
       <c r="I115">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.9774904222522997E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.6400208031163719E-3</v>
       </c>
       <c r="J115">
         <v>5</v>
       </c>
       <c r="K115">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.40955326608499082</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.17322479544000852</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -13396,20 +15002,34 @@
       <c r="AI115">
         <v>0.4</v>
       </c>
+      <c r="AJ115">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.18102435102043335</v>
+      </c>
+      <c r="AK115">
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="AL115">
+        <v>1233</v>
+      </c>
+      <c r="AM115">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B116">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C116">
-        <f t="shared" ca="1" si="5"/>
-        <v>5866</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5169</v>
       </c>
       <c r="D116">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E116">
@@ -13419,22 +15039,22 @@
         <v>0.4</v>
       </c>
       <c r="G116">
-        <f t="shared" ca="1" si="7"/>
-        <v>2482</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1039</v>
       </c>
       <c r="H116">
         <v>34.579000000000001</v>
       </c>
       <c r="I116">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.8369605436580838E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.8090172139777631E-3</v>
       </c>
       <c r="J116">
         <v>5</v>
       </c>
       <c r="K116">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.36503023674864743</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>7.7712859226336306E-2</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -13508,20 +15128,34 @@
       <c r="AI116">
         <v>0.4</v>
       </c>
+      <c r="AJ116">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.12970629503892028</v>
+      </c>
+      <c r="AK116">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="AL116">
+        <v>1233</v>
+      </c>
+      <c r="AM116">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B117">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C117">
-        <f t="shared" ca="1" si="5"/>
-        <v>4412</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5957</v>
       </c>
       <c r="D117">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E117">
@@ -13531,22 +15165,22 @@
         <v>0.4</v>
       </c>
       <c r="G117">
-        <f t="shared" ca="1" si="7"/>
-        <v>1030</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2052</v>
       </c>
       <c r="H117">
         <v>34.579000000000001</v>
       </c>
       <c r="I117">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.6568375468267093E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.765826730671093E-3</v>
       </c>
       <c r="J117">
         <v>5</v>
       </c>
       <c r="K117">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.2083739758856358E-3</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.21575997595374524</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -13620,20 +15254,34 @@
       <c r="AI117">
         <v>0.4</v>
       </c>
+      <c r="AJ117">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.19972505425537715</v>
+      </c>
+      <c r="AK117">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="AL117">
+        <v>1233</v>
+      </c>
+      <c r="AM117">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B118">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C118">
-        <f t="shared" ca="1" si="5"/>
-        <v>5355</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5147</v>
       </c>
       <c r="D118">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E118">
@@ -13643,22 +15291,22 @@
         <v>0.4</v>
       </c>
       <c r="G118">
-        <f t="shared" ca="1" si="7"/>
-        <v>1745</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1393</v>
       </c>
       <c r="H118">
         <v>34.579000000000001</v>
       </c>
       <c r="I118">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.3825384197217609E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.8325927265693239E-3</v>
       </c>
       <c r="J118">
         <v>5</v>
       </c>
       <c r="K118">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.4672236109912267E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.38559947558529423</v>
       </c>
       <c r="L118">
         <v>0</v>
@@ -13732,20 +15380,34 @@
       <c r="AI118">
         <v>0.4</v>
       </c>
+      <c r="AJ118">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.10093095479436198</v>
+      </c>
+      <c r="AK118">
+        <f t="shared" ca="1" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="AL118">
+        <v>1233</v>
+      </c>
+      <c r="AM118">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B119">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C119">
-        <f t="shared" ca="1" si="5"/>
-        <v>4763</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4396</v>
       </c>
       <c r="D119">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E119">
@@ -13755,22 +15417,22 @@
         <v>0.4</v>
       </c>
       <c r="G119">
-        <f t="shared" ca="1" si="7"/>
-        <v>2608</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1730</v>
       </c>
       <c r="H119">
         <v>34.579000000000001</v>
       </c>
       <c r="I119">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.5978626412864439E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.5845823711870412E-4</v>
       </c>
       <c r="J119">
         <v>5</v>
       </c>
       <c r="K119">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.42255375907996962</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.43167911852920099</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -13844,20 +15506,34 @@
       <c r="AI119">
         <v>0.4</v>
       </c>
+      <c r="AJ119">
+        <f t="shared" ca="1" si="12"/>
+        <v>8.5593567413680294E-2</v>
+      </c>
+      <c r="AK119">
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="AL119">
+        <v>1233</v>
+      </c>
+      <c r="AM119">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B120">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C120">
-        <f t="shared" ca="1" si="5"/>
-        <v>5514</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4785</v>
       </c>
       <c r="D120">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E120">
@@ -13867,22 +15543,22 @@
         <v>0.4</v>
       </c>
       <c r="G120">
-        <f t="shared" ca="1" si="7"/>
-        <v>2263</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2209</v>
       </c>
       <c r="H120">
         <v>34.579000000000001</v>
       </c>
       <c r="I120">
-        <f t="shared" ca="1" si="8"/>
-        <v>5.6224608130085972E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.6399267558146903E-3</v>
       </c>
       <c r="J120">
         <v>5</v>
       </c>
       <c r="K120">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.4173910178032054E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.32020491994435979</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -13956,20 +15632,34 @@
       <c r="AI120">
         <v>0.4</v>
       </c>
+      <c r="AJ120">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.7732415466777219E-2</v>
+      </c>
+      <c r="AK120">
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="AL120">
+        <v>1233</v>
+      </c>
+      <c r="AM120">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B121">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C121">
-        <f t="shared" ca="1" si="5"/>
-        <v>5622</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4777</v>
       </c>
       <c r="D121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E121">
@@ -13979,22 +15669,22 @@
         <v>0.4</v>
       </c>
       <c r="G121">
-        <f t="shared" ca="1" si="7"/>
-        <v>1550</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2239</v>
       </c>
       <c r="H121">
         <v>34.579000000000001</v>
       </c>
       <c r="I121">
-        <f t="shared" ca="1" si="8"/>
-        <v>4.3081797331358971E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.2976371736454808E-3</v>
       </c>
       <c r="J121">
         <v>5</v>
       </c>
       <c r="K121">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.360319537663492E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.23101618714093791</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -14068,20 +15758,34 @@
       <c r="AI121">
         <v>0.4</v>
       </c>
+      <c r="AJ121">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.16252635659335768</v>
+      </c>
+      <c r="AK121">
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="AL121">
+        <v>1233</v>
+      </c>
+      <c r="AM121">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B122">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C122">
-        <f t="shared" ca="1" si="5"/>
-        <v>4104</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4282</v>
       </c>
       <c r="D122">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E122">
@@ -14091,22 +15795,22 @@
         <v>0.4</v>
       </c>
       <c r="G122">
-        <f t="shared" ca="1" si="7"/>
-        <v>2409</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1576</v>
       </c>
       <c r="H122">
         <v>34.579000000000001</v>
       </c>
       <c r="I122">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.7900268507993522E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.2568267932727812E-3</v>
       </c>
       <c r="J122">
         <v>5</v>
       </c>
       <c r="K122">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.36179401475861589</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.33249433667604156</v>
       </c>
       <c r="L122">
         <v>0</v>
@@ -14180,20 +15884,34 @@
       <c r="AI122">
         <v>0.4</v>
       </c>
+      <c r="AJ122">
+        <f t="shared" ca="1" si="12"/>
+        <v>8.2915426499240164E-2</v>
+      </c>
+      <c r="AK122">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="AL122">
+        <v>1233</v>
+      </c>
+      <c r="AM122">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B123">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C123">
-        <f t="shared" ca="1" si="5"/>
-        <v>4421</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4130</v>
       </c>
       <c r="D123">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E123">
@@ -14203,22 +15921,22 @@
         <v>0.4</v>
       </c>
       <c r="G123">
-        <f t="shared" ca="1" si="7"/>
-        <v>2570</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1828</v>
       </c>
       <c r="H123">
         <v>34.579000000000001</v>
       </c>
       <c r="I123">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.7140990961882217E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3805915911369981E-4</v>
       </c>
       <c r="J123">
         <v>5</v>
       </c>
       <c r="K123">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.11725522677679701</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>6.8944876780803077E-2</v>
       </c>
       <c r="L123">
         <v>0</v>
@@ -14292,20 +16010,34 @@
       <c r="AI123">
         <v>0.4</v>
       </c>
+      <c r="AJ123">
+        <f t="shared" ca="1" si="12"/>
+        <v>6.2080313330929164E-2</v>
+      </c>
+      <c r="AK123">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="AL123">
+        <v>1233</v>
+      </c>
+      <c r="AM123">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B124">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C124">
-        <f t="shared" ca="1" si="5"/>
-        <v>4392</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4112</v>
       </c>
       <c r="D124">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E124">
@@ -14315,22 +16047,22 @@
         <v>0.4</v>
       </c>
       <c r="G124">
-        <f t="shared" ca="1" si="7"/>
-        <v>2383</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2537</v>
       </c>
       <c r="H124">
         <v>34.579000000000001</v>
       </c>
       <c r="I124">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.7209525626917894E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.7670838699997159E-4</v>
       </c>
       <c r="J124">
         <v>5</v>
       </c>
       <c r="K124">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.18128051458470335</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.31167693086722403</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -14404,20 +16136,34 @@
       <c r="AI124">
         <v>0.4</v>
       </c>
+      <c r="AJ124">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.15071349094917008</v>
+      </c>
+      <c r="AK124">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="AL124">
+        <v>1233</v>
+      </c>
+      <c r="AM124">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B125">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C125">
-        <f t="shared" ca="1" si="5"/>
-        <v>5663</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4888</v>
       </c>
       <c r="D125">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E125">
@@ -14427,22 +16173,22 @@
         <v>0.4</v>
       </c>
       <c r="G125">
-        <f t="shared" ca="1" si="7"/>
-        <v>2926</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1777</v>
       </c>
       <c r="H125">
         <v>34.579000000000001</v>
       </c>
       <c r="I125">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.3668310737932665E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.0328139295867901E-3</v>
       </c>
       <c r="J125">
         <v>5</v>
       </c>
       <c r="K125">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.26433484515913747</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3.7130103320729413E-3</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -14516,20 +16262,34 @@
       <c r="AI125">
         <v>0.4</v>
       </c>
+      <c r="AJ125">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.11836568529292751</v>
+      </c>
+      <c r="AK125">
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="AL125">
+        <v>1233</v>
+      </c>
+      <c r="AM125">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B126">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C126">
-        <f t="shared" ca="1" si="5"/>
-        <v>5282</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5933</v>
       </c>
       <c r="D126">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E126">
@@ -14539,22 +16299,22 @@
         <v>0.4</v>
       </c>
       <c r="G126">
-        <f t="shared" ca="1" si="7"/>
-        <v>2527</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2883</v>
       </c>
       <c r="H126">
         <v>34.579000000000001</v>
       </c>
       <c r="I126">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2615135539494984E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5.1707495707429664E-3</v>
       </c>
       <c r="J126">
         <v>5</v>
       </c>
       <c r="K126">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.13419293813705951</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.24948790940637922</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -14628,20 +16388,34 @@
       <c r="AI126">
         <v>0.4</v>
       </c>
+      <c r="AJ126">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.15239718200094562</v>
+      </c>
+      <c r="AK126">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AL126">
+        <v>1233</v>
+      </c>
+      <c r="AM126">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B127">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C127">
-        <f t="shared" ca="1" si="5"/>
-        <v>5609</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5769</v>
       </c>
       <c r="D127">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E127">
@@ -14651,22 +16425,22 @@
         <v>0.4</v>
       </c>
       <c r="G127">
-        <f t="shared" ca="1" si="7"/>
-        <v>2611</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2354</v>
       </c>
       <c r="H127">
         <v>34.579000000000001</v>
       </c>
       <c r="I127">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.8700809818171022E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.8781694505735523E-3</v>
       </c>
       <c r="J127">
         <v>5</v>
       </c>
       <c r="K127">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.11690252978097554</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14047397531596145</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -14740,20 +16514,34 @@
       <c r="AI127">
         <v>0.4</v>
       </c>
+      <c r="AJ127">
+        <f t="shared" ca="1" si="12"/>
+        <v>8.1121198958217067E-2</v>
+      </c>
+      <c r="AK127">
+        <f t="shared" ca="1" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="AL127">
+        <v>1233</v>
+      </c>
+      <c r="AM127">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B128">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C128">
-        <f t="shared" ca="1" si="5"/>
-        <v>4905</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5983</v>
       </c>
       <c r="D128">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E128">
@@ -14763,22 +16551,22 @@
         <v>0.4</v>
       </c>
       <c r="G128">
-        <f t="shared" ca="1" si="7"/>
-        <v>2483</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2882</v>
       </c>
       <c r="H128">
         <v>34.579000000000001</v>
       </c>
       <c r="I128">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.9809258382382182E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1750826302625826E-3</v>
       </c>
       <c r="J128">
         <v>5</v>
       </c>
       <c r="K128">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.3944803581777399E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.23617473780461695</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -14852,20 +16640,34 @@
       <c r="AI128">
         <v>0.4</v>
       </c>
+      <c r="AJ128">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.1323207094879558</v>
+      </c>
+      <c r="AK128">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AL128">
+        <v>1233</v>
+      </c>
+      <c r="AM128">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B129">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C129">
-        <f t="shared" ca="1" si="5"/>
-        <v>4573</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5604</v>
       </c>
       <c r="D129">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E129">
@@ -14875,22 +16677,22 @@
         <v>0.4</v>
       </c>
       <c r="G129">
-        <f t="shared" ca="1" si="7"/>
-        <v>2191</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1778</v>
       </c>
       <c r="H129">
         <v>34.579000000000001</v>
       </c>
       <c r="I129">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.6493307310058096E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1.4441415345948607E-3</v>
       </c>
       <c r="J129">
         <v>5</v>
       </c>
       <c r="K129">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.9617757515188579E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.41331826552969286</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -14964,20 +16766,34 @@
       <c r="AI129">
         <v>0.4</v>
       </c>
+      <c r="AJ129">
+        <f t="shared" ca="1" si="12"/>
+        <v>8.4759930774734593E-2</v>
+      </c>
+      <c r="AK129">
+        <f t="shared" ca="1" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="AL129">
+        <v>1233</v>
+      </c>
+      <c r="AM129">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B130">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C130">
-        <f t="shared" ca="1" si="5"/>
-        <v>5225</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4392</v>
       </c>
       <c r="D130">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="E130">
@@ -14987,22 +16803,22 @@
         <v>0.4</v>
       </c>
       <c r="G130">
-        <f t="shared" ca="1" si="7"/>
-        <v>2819</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2203</v>
       </c>
       <c r="H130">
         <v>34.579000000000001</v>
       </c>
       <c r="I130">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.2313294338167203E-3</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.0109638966316133E-3</v>
       </c>
       <c r="J130">
         <v>5</v>
       </c>
       <c r="K130">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.11471867084429621</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.45249265007240086</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -15076,20 +16892,34 @@
       <c r="AI130">
         <v>0.4</v>
       </c>
+      <c r="AJ130">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.13636458191602133</v>
+      </c>
+      <c r="AK130">
+        <f t="shared" ca="1" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="AL130">
+        <v>1233</v>
+      </c>
+      <c r="AM130">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B131">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C150" ca="1" si="10">RANDBETWEEN(4000,6000)</f>
-        <v>5912</v>
+        <f t="shared" ref="C131:C150" ca="1" si="14">RANDBETWEEN(4000,6000)</f>
+        <v>4408</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D150" ca="1" si="11">RANDBETWEEN(0.5,1.5)</f>
+        <f t="shared" ref="D131:D150" ca="1" si="15">RANDBETWEEN(0.5,1.5)</f>
         <v>1</v>
       </c>
       <c r="E131">
@@ -15099,22 +16929,22 @@
         <v>0.4</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G150" ca="1" si="12">RANDBETWEEN(1000,3000)</f>
-        <v>2027</v>
+        <f t="shared" ref="G131:G150" ca="1" si="16">RANDBETWEEN(1000,3000)</f>
+        <v>2955</v>
       </c>
       <c r="H131">
         <v>34.579000000000001</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I150" ca="1" si="13">0.007*RAND()</f>
-        <v>4.3731884552081065E-3</v>
+        <f t="shared" ref="I131:I150" ca="1" si="17">0.007*RAND()</f>
+        <v>2.0069651897469004E-3</v>
       </c>
       <c r="J131">
         <v>5</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K150" ca="1" si="14">0.5*RAND()</f>
-        <v>4.4910991947668344E-2</v>
+        <f t="shared" ref="K131:K150" ca="1" si="18">0.5*RAND()</f>
+        <v>1.6222858684107166E-2</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -15188,20 +17018,34 @@
       <c r="AI131">
         <v>0.4</v>
       </c>
+      <c r="AJ131">
+        <f t="shared" ref="AJ131:AJ150" ca="1" si="19">RAND()*0.2</f>
+        <v>5.1397634482284408E-3</v>
+      </c>
+      <c r="AK131">
+        <f t="shared" ref="AK131:AK150" ca="1" si="20">RANDBETWEEN(5,20)</f>
+        <v>19</v>
+      </c>
+      <c r="AL131">
+        <v>1233</v>
+      </c>
+      <c r="AM131">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B132">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C132">
-        <f t="shared" ca="1" si="10"/>
-        <v>5023</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5027</v>
       </c>
       <c r="D132">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E132">
@@ -15211,22 +17055,22 @@
         <v>0.4</v>
       </c>
       <c r="G132">
-        <f t="shared" ca="1" si="12"/>
-        <v>1664</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1867</v>
       </c>
       <c r="H132">
         <v>34.579000000000001</v>
       </c>
       <c r="I132">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.2399194606977785E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>5.012401481735272E-3</v>
       </c>
       <c r="J132">
         <v>5</v>
       </c>
       <c r="K132">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.12501751907375763</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>8.8639903340098358E-2</v>
       </c>
       <c r="L132">
         <v>0</v>
@@ -15300,20 +17144,34 @@
       <c r="AI132">
         <v>0.4</v>
       </c>
+      <c r="AJ132">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.6137447564254528E-2</v>
+      </c>
+      <c r="AK132">
+        <f t="shared" ca="1" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="AL132">
+        <v>1233</v>
+      </c>
+      <c r="AM132">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B133">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C133">
-        <f t="shared" ca="1" si="10"/>
-        <v>5166</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5291</v>
       </c>
       <c r="D133">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E133">
@@ -15323,22 +17181,22 @@
         <v>0.4</v>
       </c>
       <c r="G133">
-        <f t="shared" ca="1" si="12"/>
-        <v>2718</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1812</v>
       </c>
       <c r="H133">
         <v>34.579000000000001</v>
       </c>
       <c r="I133">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.247912989597283E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1.3283291715581527E-3</v>
       </c>
       <c r="J133">
         <v>5</v>
       </c>
       <c r="K133">
-        <f t="shared" ca="1" si="14"/>
-        <v>9.3770573682501357E-2</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.39043519358272466</v>
       </c>
       <c r="L133">
         <v>0</v>
@@ -15412,20 +17270,34 @@
       <c r="AI133">
         <v>0.4</v>
       </c>
+      <c r="AJ133">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.14104084266414935</v>
+      </c>
+      <c r="AK133">
+        <f t="shared" ca="1" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="AL133">
+        <v>1233</v>
+      </c>
+      <c r="AM133">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B134">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C134">
-        <f t="shared" ca="1" si="10"/>
-        <v>5058</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5956</v>
       </c>
       <c r="D134">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E134">
@@ -15435,22 +17307,22 @@
         <v>0.4</v>
       </c>
       <c r="G134">
-        <f t="shared" ca="1" si="12"/>
-        <v>2108</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>2975</v>
       </c>
       <c r="H134">
         <v>34.579000000000001</v>
       </c>
       <c r="I134">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.2556257282529711E-4</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1.3102366310008694E-3</v>
       </c>
       <c r="J134">
         <v>5</v>
       </c>
       <c r="K134">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.2976723602539767</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.43452334288187427</v>
       </c>
       <c r="L134">
         <v>0</v>
@@ -15524,20 +17396,34 @@
       <c r="AI134">
         <v>0.4</v>
       </c>
+      <c r="AJ134">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.1767855541493637</v>
+      </c>
+      <c r="AK134">
+        <f t="shared" ca="1" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="AL134">
+        <v>1233</v>
+      </c>
+      <c r="AM134">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B135">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C135">
-        <f t="shared" ca="1" si="10"/>
-        <v>5209</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4631</v>
       </c>
       <c r="D135">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E135">
@@ -15547,22 +17433,22 @@
         <v>0.4</v>
       </c>
       <c r="G135">
-        <f t="shared" ca="1" si="12"/>
-        <v>1873</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1650</v>
       </c>
       <c r="H135">
         <v>34.579000000000001</v>
       </c>
       <c r="I135">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.4497967357071704E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>2.4651272065822089E-3</v>
       </c>
       <c r="J135">
         <v>5</v>
       </c>
       <c r="K135">
-        <f t="shared" ca="1" si="14"/>
-        <v>7.1654207274017279E-3</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>3.0648259951864376E-2</v>
       </c>
       <c r="L135">
         <v>0</v>
@@ -15636,20 +17522,34 @@
       <c r="AI135">
         <v>0.4</v>
       </c>
+      <c r="AJ135">
+        <f t="shared" ca="1" si="19"/>
+        <v>3.4557275727946271E-2</v>
+      </c>
+      <c r="AK135">
+        <f t="shared" ca="1" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="AL135">
+        <v>1233</v>
+      </c>
+      <c r="AM135">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B136">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C136">
-        <f t="shared" ca="1" si="10"/>
-        <v>5030</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5445</v>
       </c>
       <c r="D136">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E136">
@@ -15659,22 +17559,22 @@
         <v>0.4</v>
       </c>
       <c r="G136">
-        <f t="shared" ca="1" si="12"/>
-        <v>2575</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1842</v>
       </c>
       <c r="H136">
         <v>34.579000000000001</v>
       </c>
       <c r="I136">
-        <f t="shared" ca="1" si="13"/>
-        <v>3.7314886287576846E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>6.795230188212909E-4</v>
       </c>
       <c r="J136">
         <v>5</v>
       </c>
       <c r="K136">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.20020191540446208</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.4290793094491912</v>
       </c>
       <c r="L136">
         <v>0</v>
@@ -15748,20 +17648,34 @@
       <c r="AI136">
         <v>0.4</v>
       </c>
+      <c r="AJ136">
+        <f t="shared" ca="1" si="19"/>
+        <v>9.1977600276637553E-2</v>
+      </c>
+      <c r="AK136">
+        <f t="shared" ca="1" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="AL136">
+        <v>1233</v>
+      </c>
+      <c r="AM136">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B137">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C137">
-        <f t="shared" ca="1" si="10"/>
-        <v>4611</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5020</v>
       </c>
       <c r="D137">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E137">
@@ -15771,22 +17685,22 @@
         <v>0.4</v>
       </c>
       <c r="G137">
-        <f t="shared" ca="1" si="12"/>
-        <v>1823</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>2574</v>
       </c>
       <c r="H137">
         <v>34.579000000000001</v>
       </c>
       <c r="I137">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.2759260158784689E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>6.5045750126454128E-3</v>
       </c>
       <c r="J137">
         <v>5</v>
       </c>
       <c r="K137">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.10212485985255682</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.32938058887740462</v>
       </c>
       <c r="L137">
         <v>0</v>
@@ -15860,20 +17774,34 @@
       <c r="AI137">
         <v>0.4</v>
       </c>
+      <c r="AJ137">
+        <f t="shared" ca="1" si="19"/>
+        <v>3.7063555807984198E-2</v>
+      </c>
+      <c r="AK137">
+        <f t="shared" ca="1" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="AL137">
+        <v>1233</v>
+      </c>
+      <c r="AM137">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B138">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C138">
-        <f t="shared" ca="1" si="10"/>
-        <v>5655</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5190</v>
       </c>
       <c r="D138">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E138">
@@ -15883,22 +17811,22 @@
         <v>0.4</v>
       </c>
       <c r="G138">
-        <f t="shared" ca="1" si="12"/>
-        <v>2282</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>2262</v>
       </c>
       <c r="H138">
         <v>34.579000000000001</v>
       </c>
       <c r="I138">
-        <f t="shared" ca="1" si="13"/>
-        <v>2.10435889159905E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>9.7490942406394275E-4</v>
       </c>
       <c r="J138">
         <v>5</v>
       </c>
       <c r="K138">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.49373587584110795</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.43229900926486819</v>
       </c>
       <c r="L138">
         <v>0</v>
@@ -15972,20 +17900,34 @@
       <c r="AI138">
         <v>0.4</v>
       </c>
+      <c r="AJ138">
+        <f t="shared" ca="1" si="19"/>
+        <v>8.3560671516736768E-2</v>
+      </c>
+      <c r="AK138">
+        <f t="shared" ca="1" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="AL138">
+        <v>1233</v>
+      </c>
+      <c r="AM138">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B139">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C139">
-        <f t="shared" ca="1" si="10"/>
-        <v>4162</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5341</v>
       </c>
       <c r="D139">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E139">
@@ -15995,22 +17937,22 @@
         <v>0.4</v>
       </c>
       <c r="G139">
-        <f t="shared" ca="1" si="12"/>
-        <v>1848</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>2687</v>
       </c>
       <c r="H139">
         <v>34.579000000000001</v>
       </c>
       <c r="I139">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.0510435574026664E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>6.1098277429891615E-3</v>
       </c>
       <c r="J139">
         <v>5</v>
       </c>
       <c r="K139">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.27310822763919601</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>2.6096843810653192E-2</v>
       </c>
       <c r="L139">
         <v>0</v>
@@ -16084,20 +18026,34 @@
       <c r="AI139">
         <v>0.4</v>
       </c>
+      <c r="AJ139">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.13617572701377662</v>
+      </c>
+      <c r="AK139">
+        <f t="shared" ca="1" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="AL139">
+        <v>1233</v>
+      </c>
+      <c r="AM139">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B140">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C140">
-        <f t="shared" ca="1" si="10"/>
-        <v>4227</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4775</v>
       </c>
       <c r="D140">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E140">
@@ -16107,22 +18063,22 @@
         <v>0.4</v>
       </c>
       <c r="G140">
-        <f t="shared" ca="1" si="12"/>
-        <v>2563</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>2912</v>
       </c>
       <c r="H140">
         <v>34.579000000000001</v>
       </c>
       <c r="I140">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.5950382084771054E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>2.1068070181293574E-3</v>
       </c>
       <c r="J140">
         <v>5</v>
       </c>
       <c r="K140">
-        <f t="shared" ca="1" si="14"/>
-        <v>9.1465659819585154E-2</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.13669714434094671</v>
       </c>
       <c r="L140">
         <v>0</v>
@@ -16196,20 +18152,34 @@
       <c r="AI140">
         <v>0.4</v>
       </c>
+      <c r="AJ140">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.1895698870832314E-2</v>
+      </c>
+      <c r="AK140">
+        <f t="shared" ca="1" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="AL140">
+        <v>1233</v>
+      </c>
+      <c r="AM140">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B141">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C141">
-        <f t="shared" ca="1" si="10"/>
-        <v>5436</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5266</v>
       </c>
       <c r="D141">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E141">
@@ -16219,22 +18189,22 @@
         <v>0.4</v>
       </c>
       <c r="G141">
-        <f t="shared" ca="1" si="12"/>
-        <v>1537</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1901</v>
       </c>
       <c r="H141">
         <v>34.579000000000001</v>
       </c>
       <c r="I141">
-        <f t="shared" ca="1" si="13"/>
-        <v>2.1131126708040853E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>4.5338226705010877E-3</v>
       </c>
       <c r="J141">
         <v>5</v>
       </c>
       <c r="K141">
-        <f t="shared" ca="1" si="14"/>
-        <v>7.3861999622440166E-2</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.18796127087841474</v>
       </c>
       <c r="L141">
         <v>0</v>
@@ -16308,20 +18278,34 @@
       <c r="AI141">
         <v>0.4</v>
       </c>
+      <c r="AJ141">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.4550790881649079E-2</v>
+      </c>
+      <c r="AK141">
+        <f t="shared" ca="1" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="AL141">
+        <v>1233</v>
+      </c>
+      <c r="AM141">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B142">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C142">
-        <f t="shared" ca="1" si="10"/>
-        <v>5089</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4059</v>
       </c>
       <c r="D142">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E142">
@@ -16331,22 +18315,22 @@
         <v>0.4</v>
       </c>
       <c r="G142">
-        <f t="shared" ca="1" si="12"/>
-        <v>2924</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1529</v>
       </c>
       <c r="H142">
         <v>34.579000000000001</v>
       </c>
       <c r="I142">
-        <f t="shared" ca="1" si="13"/>
-        <v>3.7362257083790478E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1.8625568996696263E-4</v>
       </c>
       <c r="J142">
         <v>5</v>
       </c>
       <c r="K142">
-        <f t="shared" ca="1" si="14"/>
-        <v>7.9378770776853014E-2</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.43851065313993753</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -16420,20 +18404,34 @@
       <c r="AI142">
         <v>0.4</v>
       </c>
+      <c r="AJ142">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.17058616344221855</v>
+      </c>
+      <c r="AK142">
+        <f t="shared" ca="1" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="AL142">
+        <v>1233</v>
+      </c>
+      <c r="AM142">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B143">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C143">
-        <f t="shared" ca="1" si="10"/>
-        <v>5739</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4993</v>
       </c>
       <c r="D143">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E143">
@@ -16443,22 +18441,22 @@
         <v>0.4</v>
       </c>
       <c r="G143">
-        <f t="shared" ca="1" si="12"/>
-        <v>1657</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1817</v>
       </c>
       <c r="H143">
         <v>34.579000000000001</v>
       </c>
       <c r="I143">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.7483612642280453E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>6.7583680293598269E-3</v>
       </c>
       <c r="J143">
         <v>5</v>
       </c>
       <c r="K143">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.48776308370892413</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.22404241983624196</v>
       </c>
       <c r="L143">
         <v>0</v>
@@ -16532,20 +18530,34 @@
       <c r="AI143">
         <v>0.4</v>
       </c>
+      <c r="AJ143">
+        <f t="shared" ca="1" si="19"/>
+        <v>9.0505272252508914E-2</v>
+      </c>
+      <c r="AK143">
+        <f t="shared" ca="1" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="AL143">
+        <v>1233</v>
+      </c>
+      <c r="AM143">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B144">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C144">
-        <f t="shared" ca="1" si="10"/>
-        <v>5178</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5776</v>
       </c>
       <c r="D144">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E144">
@@ -16555,22 +18567,22 @@
         <v>0.4</v>
       </c>
       <c r="G144">
-        <f t="shared" ca="1" si="12"/>
-        <v>1602</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1265</v>
       </c>
       <c r="H144">
         <v>34.579000000000001</v>
       </c>
       <c r="I144">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.2328980804329709E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>2.3990092940162446E-3</v>
       </c>
       <c r="J144">
         <v>5</v>
       </c>
       <c r="K144">
-        <f t="shared" ca="1" si="14"/>
-        <v>7.4922550881239003E-3</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>5.2464926022296854E-2</v>
       </c>
       <c r="L144">
         <v>0</v>
@@ -16644,20 +18656,34 @@
       <c r="AI144">
         <v>0.4</v>
       </c>
+      <c r="AJ144">
+        <f t="shared" ca="1" si="19"/>
+        <v>3.1318282545688539E-2</v>
+      </c>
+      <c r="AK144">
+        <f t="shared" ca="1" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="AL144">
+        <v>1233</v>
+      </c>
+      <c r="AM144">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B145">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C145">
-        <f t="shared" ca="1" si="10"/>
-        <v>5215</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4187</v>
       </c>
       <c r="D145">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E145">
@@ -16667,22 +18693,22 @@
         <v>0.4</v>
       </c>
       <c r="G145">
-        <f t="shared" ca="1" si="12"/>
-        <v>1108</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1265</v>
       </c>
       <c r="H145">
         <v>34.579000000000001</v>
       </c>
       <c r="I145">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.3106031477009354E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>4.3109621555985061E-3</v>
       </c>
       <c r="J145">
         <v>5</v>
       </c>
       <c r="K145">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.25261796686080978</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.39376160710398062</v>
       </c>
       <c r="L145">
         <v>0</v>
@@ -16756,20 +18782,34 @@
       <c r="AI145">
         <v>0.4</v>
       </c>
+      <c r="AJ145">
+        <f t="shared" ca="1" si="19"/>
+        <v>5.1043667594819021E-2</v>
+      </c>
+      <c r="AK145">
+        <f t="shared" ca="1" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="AL145">
+        <v>1233</v>
+      </c>
+      <c r="AM145">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B146">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C146">
-        <f t="shared" ca="1" si="10"/>
-        <v>4177</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5137</v>
       </c>
       <c r="D146">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E146">
@@ -16779,22 +18819,22 @@
         <v>0.4</v>
       </c>
       <c r="G146">
-        <f t="shared" ca="1" si="12"/>
-        <v>1550</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>2387</v>
       </c>
       <c r="H146">
         <v>34.579000000000001</v>
       </c>
       <c r="I146">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.6964206248024073E-4</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>2.2274698154190233E-3</v>
       </c>
       <c r="J146">
         <v>5</v>
       </c>
       <c r="K146">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.21937492755123533</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.36901964280909338</v>
       </c>
       <c r="L146">
         <v>0</v>
@@ -16868,20 +18908,34 @@
       <c r="AI146">
         <v>0.4</v>
       </c>
+      <c r="AJ146">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.16163141851373036</v>
+      </c>
+      <c r="AK146">
+        <f t="shared" ca="1" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="AL146">
+        <v>1233</v>
+      </c>
+      <c r="AM146">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B147">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C147">
-        <f t="shared" ca="1" si="10"/>
-        <v>5004</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5953</v>
       </c>
       <c r="D147">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E147">
@@ -16891,22 +18945,22 @@
         <v>0.4</v>
       </c>
       <c r="G147">
-        <f t="shared" ca="1" si="12"/>
-        <v>1579</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>2668</v>
       </c>
       <c r="H147">
         <v>34.579000000000001</v>
       </c>
       <c r="I147">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.5528364390692655E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>9.4387715835682665E-4</v>
       </c>
       <c r="J147">
         <v>5</v>
       </c>
       <c r="K147">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.22842688438462844</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>1.9192067215330955E-2</v>
       </c>
       <c r="L147">
         <v>0</v>
@@ -16980,20 +19034,34 @@
       <c r="AI147">
         <v>0.4</v>
       </c>
+      <c r="AJ147">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.1389658638063282E-2</v>
+      </c>
+      <c r="AK147">
+        <f t="shared" ca="1" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="AL147">
+        <v>1233</v>
+      </c>
+      <c r="AM147">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B148">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C148">
-        <f t="shared" ca="1" si="10"/>
-        <v>5559</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4326</v>
       </c>
       <c r="D148">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E148">
@@ -17003,22 +19071,22 @@
         <v>0.4</v>
       </c>
       <c r="G148">
-        <f t="shared" ca="1" si="12"/>
-        <v>2172</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1689</v>
       </c>
       <c r="H148">
         <v>34.579000000000001</v>
       </c>
       <c r="I148">
-        <f t="shared" ca="1" si="13"/>
-        <v>6.1116023873641371E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1.0460563964507135E-3</v>
       </c>
       <c r="J148">
         <v>5</v>
       </c>
       <c r="K148">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.43844447373388246</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.39577190039746912</v>
       </c>
       <c r="L148">
         <v>0</v>
@@ -17092,20 +19160,34 @@
       <c r="AI148">
         <v>0.4</v>
       </c>
+      <c r="AJ148">
+        <f t="shared" ca="1" si="19"/>
+        <v>1.4467274036009094E-2</v>
+      </c>
+      <c r="AK148">
+        <f t="shared" ca="1" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="AL148">
+        <v>1233</v>
+      </c>
+      <c r="AM148">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B149">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C149">
-        <f t="shared" ca="1" si="10"/>
-        <v>4859</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4108</v>
       </c>
       <c r="D149">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E149">
@@ -17115,22 +19197,22 @@
         <v>0.4</v>
       </c>
       <c r="G149">
-        <f t="shared" ca="1" si="12"/>
-        <v>2876</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1698</v>
       </c>
       <c r="H149">
         <v>34.579000000000001</v>
       </c>
       <c r="I149">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.4523429622498898E-3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>3.0590629367781563E-3</v>
       </c>
       <c r="J149">
         <v>5</v>
       </c>
       <c r="K149">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.36451961916957554</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.454170419533376</v>
       </c>
       <c r="L149">
         <v>0</v>
@@ -17204,20 +19286,34 @@
       <c r="AI149">
         <v>0.4</v>
       </c>
+      <c r="AJ149">
+        <f t="shared" ca="1" si="19"/>
+        <v>5.979226306984331E-3</v>
+      </c>
+      <c r="AK149">
+        <f t="shared" ca="1" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="AL149">
+        <v>1233</v>
+      </c>
+      <c r="AM149">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>-118.1164613</v>
+        <v>-74.594691499999996</v>
       </c>
       <c r="B150">
-        <v>34.579434300000003</v>
+        <v>40.344404099999998</v>
       </c>
       <c r="C150">
-        <f t="shared" ca="1" si="10"/>
-        <v>4694</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5548</v>
       </c>
       <c r="D150">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="E150">
@@ -17227,22 +19323,22 @@
         <v>0.4</v>
       </c>
       <c r="G150">
-        <f t="shared" ca="1" si="12"/>
-        <v>2805</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>2682</v>
       </c>
       <c r="H150">
         <v>34.579000000000001</v>
       </c>
       <c r="I150">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.2880427547423329E-4</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>3.0843592785658228E-3</v>
       </c>
       <c r="J150">
         <v>5</v>
       </c>
       <c r="K150">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.31541028594839277</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.4293109124365726</v>
       </c>
       <c r="L150">
         <v>0</v>
@@ -17315,6 +19411,20 @@
       </c>
       <c r="AI150">
         <v>0.4</v>
+      </c>
+      <c r="AJ150">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.16230166018956491</v>
+      </c>
+      <c r="AK150">
+        <f t="shared" ca="1" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="AL150">
+        <v>1233</v>
+      </c>
+      <c r="AM150">
+        <v>3450</v>
       </c>
     </row>
   </sheetData>
